--- a/Asset Allocation/HP_Data.xlsx
+++ b/Asset Allocation/HP_Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -3766,6 +3766,14 @@
           </cell>
           <cell r="G159">
             <v>3.7198299999999997E-2</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="B160">
+            <v>3.0374365707390716E-3</v>
+          </cell>
+          <cell r="G160">
+            <v>-3.8923017041514463E-4</v>
           </cell>
         </row>
       </sheetData>
@@ -4037,10 +4045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="G160" sqref="G160"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="J169" sqref="J169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9059,6 +9067,37 @@
         <v>-5.7000000000000002E-3</v>
       </c>
     </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" s="3">
+        <v>42855</v>
+      </c>
+      <c r="B161" s="1">
+        <f>AVERAGE([1]Sheet1!B149:B160)</f>
+        <v>2.2607211374662934E-3</v>
+      </c>
+      <c r="C161">
+        <v>2.5899999999999999E-3</v>
+      </c>
+      <c r="D161">
+        <v>2.0370000000000002E-3</v>
+      </c>
+      <c r="E161">
+        <v>6.5579999999999996E-3</v>
+      </c>
+      <c r="F161">
+        <v>2.8840999999999999E-2</v>
+      </c>
+      <c r="G161" s="1">
+        <f>AVERAGE([1]Sheet1!G149:G160)</f>
+        <v>1.2370810844574863E-2</v>
+      </c>
+      <c r="H161">
+        <v>2.7000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G162" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Asset Allocation/HP_Data.xlsx
+++ b/Asset Allocation/HP_Data.xlsx
@@ -17,7 +17,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -3806,6 +3806,14 @@
           </cell>
           <cell r="H162">
             <v>2.8E-3</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="E163">
+            <v>4.0501699999999641E-3</v>
+          </cell>
+          <cell r="H163">
+            <v>2.9747920000000594E-3</v>
           </cell>
         </row>
       </sheetData>
@@ -4077,11 +4085,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H163"/>
+  <dimension ref="A1:H164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H173" sqref="H173"/>
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K169" sqref="K169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9184,6 +9192,34 @@
         <v>2.3754621589011289E-3</v>
       </c>
     </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" s="3">
+        <v>42947</v>
+      </c>
+      <c r="B164">
+        <v>-5.3E-3</v>
+      </c>
+      <c r="C164" s="1">
+        <v>-9.4000000000000004E-3</v>
+      </c>
+      <c r="D164">
+        <v>-8.8999999999999999E-3</v>
+      </c>
+      <c r="E164" s="1">
+        <f>AVERAGE([1]Sheet1!E152:E163)</f>
+        <v>1.3837391472829206E-2</v>
+      </c>
+      <c r="F164" s="1">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G164" s="1">
+        <v>-2E-3</v>
+      </c>
+      <c r="H164" s="1">
+        <f>AVERAGE([1]Sheet1!H152:H163)</f>
+        <v>2.4550040095590035E-3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Asset Allocation/HP_Data.xlsx
+++ b/Asset Allocation/HP_Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="42020" yWindow="2020" windowWidth="27820" windowHeight="17560"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="27820" windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4364,6 +4364,14 @@
           </cell>
           <cell r="I164">
             <v>3.0999999999999999E-3</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="F165">
+            <v>5.1000000000000004E-4</v>
+          </cell>
+          <cell r="I165">
+            <v>3.3E-3</v>
           </cell>
         </row>
       </sheetData>
@@ -4638,8 +4646,8 @@
   <dimension ref="A1:P176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G165" sqref="G165"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F167" sqref="F167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10421,6 +10429,37 @@
         <v>2.5423082294012793E-3</v>
       </c>
     </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A166" s="3">
+        <v>43008</v>
+      </c>
+      <c r="B166" s="6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C166">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D166" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E166">
+        <v>1.09E-2</v>
+      </c>
+      <c r="F166" s="5">
+        <f>AVERAGE([1]Sheet1!F154:F165)-0.01</f>
+        <v>2.6890055005454501E-3</v>
+      </c>
+      <c r="G166" s="1">
+        <v>-4.0000000000000002E-4</v>
+      </c>
+      <c r="H166" s="1">
+        <v>-1.37E-2</v>
+      </c>
+      <c r="I166" s="5">
+        <f>AVERAGE([1]Sheet1!I154:I165)</f>
+        <v>2.6316048643841698E-3</v>
+      </c>
+    </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>

--- a/Asset Allocation/HP_Data.xlsx
+++ b/Asset Allocation/HP_Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="27820" windowHeight="17560"/>
+    <workbookView xWindow="980" yWindow="440" windowWidth="27820" windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -274,10 +274,10 @@
             <v>7.2475777237634306E-2</v>
           </cell>
           <cell r="E2">
+            <v>1.7276422764227702E-2</v>
+          </cell>
+          <cell r="F2">
             <v>5.6729755390054301E-2</v>
-          </cell>
-          <cell r="F2">
-            <v>1.7276422764227702E-2</v>
           </cell>
           <cell r="G2">
             <v>-2.1741278782487802E-3</v>
@@ -297,10 +297,10 @@
             <v>5.4845965220621497E-2</v>
           </cell>
           <cell r="E3">
+            <v>1.2209029908145E-2</v>
+          </cell>
+          <cell r="F3">
             <v>4.64777487570893E-2</v>
-          </cell>
-          <cell r="F3">
-            <v>1.2209029908145E-2</v>
           </cell>
           <cell r="G3">
             <v>-7.9231454887584995E-4</v>
@@ -320,10 +320,10 @@
             <v>2.4669838192970001E-2</v>
           </cell>
           <cell r="E4">
+            <v>-1.6358935839432601E-2</v>
+          </cell>
+          <cell r="F4">
             <v>-8.8110833154167303E-2</v>
-          </cell>
-          <cell r="F4">
-            <v>-1.6358935839432601E-2</v>
           </cell>
           <cell r="G4">
             <v>-2.0814748736246399E-3</v>
@@ -343,10 +343,10 @@
             <v>-0.104865576762838</v>
           </cell>
           <cell r="E5">
+            <v>-1.6790829419024999E-2</v>
+          </cell>
+          <cell r="F5">
             <v>-5.82502146799279E-2</v>
-          </cell>
-          <cell r="F5">
-            <v>-1.6790829419024999E-2</v>
           </cell>
           <cell r="G5">
             <v>-3.1386571315057697E-2</v>
@@ -366,10 +366,10 @@
             <v>-2.6521311263833801E-2</v>
           </cell>
           <cell r="E6">
+            <v>1.2083446220536601E-2</v>
+          </cell>
+          <cell r="F6">
             <v>2.13749355268711E-2</v>
-          </cell>
-          <cell r="F6">
-            <v>1.2083446220536601E-2</v>
           </cell>
           <cell r="G6">
             <v>9.2288761279735198E-4</v>
@@ -389,10 +389,10 @@
             <v>-0.106357009746934</v>
           </cell>
           <cell r="E7">
+            <v>1.7989078059749398E-2</v>
+          </cell>
+          <cell r="F7">
             <v>7.1739857553221303E-3</v>
-          </cell>
-          <cell r="F7">
-            <v>1.7989078059749398E-2</v>
           </cell>
           <cell r="G7">
             <v>3.4832496670422798E-3</v>
@@ -412,10 +412,10 @@
             <v>9.4502936990314996E-3</v>
           </cell>
           <cell r="E8">
+            <v>-3.4290522772693698E-2</v>
+          </cell>
+          <cell r="F8">
             <v>-3.8841747553058901E-3</v>
-          </cell>
-          <cell r="F8">
-            <v>-3.4290522772693698E-2</v>
           </cell>
           <cell r="G8">
             <v>8.0653394589074202E-3</v>
@@ -435,10 +435,10 @@
             <v>-3.0042886916872399E-2</v>
           </cell>
           <cell r="E9">
+            <v>2.28733253458224E-3</v>
+          </cell>
+          <cell r="F9">
             <v>5.0028476805498802E-2</v>
-          </cell>
-          <cell r="F9">
-            <v>2.28733253458224E-3</v>
           </cell>
           <cell r="G9">
             <v>-9.9250557018430996E-3</v>
@@ -458,10 +458,10 @@
             <v>5.0526056611456698E-2</v>
           </cell>
           <cell r="E10">
+            <v>9.3639063971599993E-3</v>
+          </cell>
+          <cell r="F10">
             <v>2.09917604908221E-2</v>
-          </cell>
-          <cell r="F10">
-            <v>9.3639063971599993E-3</v>
           </cell>
           <cell r="G10">
             <v>1.08428805237315E-2</v>
@@ -481,10 +481,10 @@
             <v>-5.3208079875672103E-2</v>
           </cell>
           <cell r="E11">
+            <v>1.4014247519245101E-2</v>
+          </cell>
+          <cell r="F11">
             <v>-4.9824581193793601E-3</v>
-          </cell>
-          <cell r="F11">
-            <v>1.4014247519245101E-2</v>
           </cell>
           <cell r="G11">
             <v>4.2501517911355301E-3</v>
@@ -504,10 +504,10 @@
             <v>1.19156544945773E-2</v>
           </cell>
           <cell r="E12">
+            <v>3.8594938948858501E-2</v>
+          </cell>
+          <cell r="F12">
             <v>7.7013878569031996E-2</v>
-          </cell>
-          <cell r="F12">
-            <v>3.8594938948858501E-2</v>
           </cell>
           <cell r="G12">
             <v>1.91455058444179E-3</v>
@@ -527,10 +527,10 @@
             <v>-5.9101592564644499E-2</v>
           </cell>
           <cell r="E13">
+            <v>3.2458128162750698E-2</v>
+          </cell>
+          <cell r="F13">
             <v>1.20973965241944E-2</v>
-          </cell>
-          <cell r="F13">
-            <v>3.2458128162750698E-2</v>
           </cell>
           <cell r="G13">
             <v>1.91089208488382E-3</v>
@@ -553,10 +553,10 @@
             <v>-6.5125384146953097E-2</v>
           </cell>
           <cell r="E14">
+            <v>-2.5290448214403599E-2</v>
+          </cell>
+          <cell r="F14">
             <v>-3.5730498786378698E-2</v>
-          </cell>
-          <cell r="F14">
-            <v>-2.5290448214403599E-2</v>
           </cell>
           <cell r="G14">
             <v>1.3049588436057099E-2</v>
@@ -579,10 +579,10 @@
             <v>0.10642570934034799</v>
           </cell>
           <cell r="E15">
+            <v>1.89033836464143E-2</v>
+          </cell>
+          <cell r="F15">
             <v>3.45190716303896E-2</v>
-          </cell>
-          <cell r="F15">
-            <v>1.89033836464143E-2</v>
           </cell>
           <cell r="G15">
             <v>9.7106619104241308E-3</v>
@@ -605,10 +605,10 @@
             <v>-0.122230853399187</v>
           </cell>
           <cell r="E16">
+            <v>-1.91176470588236E-2</v>
+          </cell>
+          <cell r="F16">
             <v>-4.7795228719263803E-2</v>
-          </cell>
-          <cell r="F16">
-            <v>-1.91176470588236E-2</v>
           </cell>
           <cell r="G16">
             <v>1.7075564278704599E-2</v>
@@ -631,10 +631,10 @@
             <v>-5.4077369128235797E-2</v>
           </cell>
           <cell r="E17">
+            <v>-2.0108589772910201E-2</v>
+          </cell>
+          <cell r="F17">
             <v>2.9007433668124499E-2</v>
-          </cell>
-          <cell r="F17">
-            <v>-2.0108589772910201E-2</v>
           </cell>
           <cell r="G17">
             <v>1.20609803164802E-2</v>
@@ -657,10 +657,10 @@
             <v>-5.9861186322499399E-2</v>
           </cell>
           <cell r="E18">
+            <v>2.9952024895189701E-2</v>
+          </cell>
+          <cell r="F18">
             <v>-3.01244448726246E-3</v>
-          </cell>
-          <cell r="F18">
-            <v>2.9952024895189701E-2</v>
           </cell>
           <cell r="G18">
             <v>1.1249880827533599E-2</v>
@@ -683,10 +683,10 @@
             <v>-6.7388488991958501E-3</v>
           </cell>
           <cell r="E19">
+            <v>-1.4267729752415201E-4</v>
+          </cell>
+          <cell r="F19">
             <v>2.4085116755017299E-2</v>
-          </cell>
-          <cell r="F19">
-            <v>-1.4267729752415201E-4</v>
           </cell>
           <cell r="G19">
             <v>1.7912699160931501E-2</v>
@@ -709,10 +709,10 @@
             <v>-5.8972687371604798E-2</v>
           </cell>
           <cell r="E20">
+            <v>3.5968203604375103E-2</v>
+          </cell>
+          <cell r="F20">
             <v>4.7878116140626099E-2</v>
-          </cell>
-          <cell r="F20">
-            <v>3.5968203604375103E-2</v>
           </cell>
           <cell r="G20">
             <v>1.7134389182180201E-2</v>
@@ -735,10 +735,10 @@
             <v>0.134685328768503</v>
           </cell>
           <cell r="E21">
+            <v>-1.12220259605569E-2</v>
+          </cell>
+          <cell r="F21">
             <v>1.51670118500258E-3</v>
-          </cell>
-          <cell r="F21">
-            <v>-1.12220259605569E-2</v>
           </cell>
           <cell r="G21">
             <v>3.0049171371335798E-3</v>
@@ -761,10 +761,10 @@
             <v>2.88318412763773E-2</v>
           </cell>
           <cell r="E22">
+            <v>6.9489400408087E-3</v>
+          </cell>
+          <cell r="F22">
             <v>3.5224493493161098E-2</v>
-          </cell>
-          <cell r="F22">
-            <v>6.9489400408087E-3</v>
           </cell>
           <cell r="G22">
             <v>8.8969586926916904E-3</v>
@@ -787,10 +787,10 @@
             <v>-4.6980537291735902E-2</v>
           </cell>
           <cell r="E23">
+            <v>-1.7740741042146398E-2</v>
+          </cell>
+          <cell r="F23">
             <v>-6.7546984415873895E-2</v>
-          </cell>
-          <cell r="F23">
-            <v>-1.7740741042146398E-2</v>
           </cell>
           <cell r="G23">
             <v>2.06964815981281E-3</v>
@@ -813,10 +813,10 @@
             <v>1.0148927363367E-3</v>
           </cell>
           <cell r="E24">
+            <v>3.5186121076047301E-2</v>
+          </cell>
+          <cell r="F24">
             <v>3.8284153681574798E-2</v>
-          </cell>
-          <cell r="F24">
-            <v>3.5186121076047301E-2</v>
           </cell>
           <cell r="G24">
             <v>-6.1063218390804402E-3</v>
@@ -839,10 +839,10 @@
             <v>3.69270644966848E-2</v>
           </cell>
           <cell r="E25">
+            <v>-9.5239619681797305E-4</v>
+          </cell>
+          <cell r="F25">
             <v>-4.0643657353415198E-3</v>
-          </cell>
-          <cell r="F25">
-            <v>-9.5239619681797305E-4</v>
           </cell>
           <cell r="G25">
             <v>6.5955908926633696E-3</v>
@@ -865,10 +865,10 @@
             <v>0.113536193905347</v>
           </cell>
           <cell r="E26">
+            <v>2.5466838635253002E-2</v>
+          </cell>
+          <cell r="F26">
             <v>5.8932821920312899E-2</v>
-          </cell>
-          <cell r="F26">
-            <v>2.5466838635253002E-2</v>
           </cell>
           <cell r="G26">
             <v>1.24764383807558E-2</v>
@@ -891,10 +891,10 @@
             <v>7.24482583288344E-3</v>
           </cell>
           <cell r="E27">
+            <v>4.5309668145754301E-4</v>
+          </cell>
+          <cell r="F27">
             <v>1.0495685304644099E-2</v>
-          </cell>
-          <cell r="F27">
-            <v>4.5309668145754301E-4</v>
           </cell>
           <cell r="G27">
             <v>2.7482269503547002E-3</v>
@@ -917,10 +917,10 @@
             <v>3.6823927208347297E-2</v>
           </cell>
           <cell r="E28">
+            <v>1.10646073118548E-2</v>
+          </cell>
+          <cell r="F28">
             <v>-7.12630854202156E-3</v>
-          </cell>
-          <cell r="F28">
-            <v>1.10646073118548E-2</v>
           </cell>
           <cell r="G28">
             <v>2.2986473344532902E-3</v>
@@ -943,10 +943,10 @@
             <v>0.14139850897424699</v>
           </cell>
           <cell r="E29">
+            <v>1.2186928013716101E-2</v>
+          </cell>
+          <cell r="F29">
             <v>5.4176389303665098E-2</v>
-          </cell>
-          <cell r="F29">
-            <v>1.2186928013716101E-2</v>
           </cell>
           <cell r="G29">
             <v>-3.79289053541509E-3</v>
@@ -969,10 +969,10 @@
             <v>0.22830027547002901</v>
           </cell>
           <cell r="E30">
+            <v>-3.0916901290238798E-2</v>
+          </cell>
+          <cell r="F30">
             <v>-4.8220126880855599E-2</v>
-          </cell>
-          <cell r="F30">
-            <v>-3.0916901290238798E-2</v>
           </cell>
           <cell r="G30">
             <v>3.63024614839724E-3</v>
@@ -995,10 +995,10 @@
             <v>5.9659909350995098E-2</v>
           </cell>
           <cell r="E31">
+            <v>8.6608035651192198E-5</v>
+          </cell>
+          <cell r="F31">
             <v>2.5837611435064901E-2</v>
-          </cell>
-          <cell r="F31">
-            <v>8.6608035651192198E-5</v>
           </cell>
           <cell r="G31">
             <v>-5.4697838553152698E-3</v>
@@ -1021,10 +1021,10 @@
             <v>-4.1016961699063402E-2</v>
           </cell>
           <cell r="E32">
+            <v>5.0858132577547002E-3</v>
+          </cell>
+          <cell r="F32">
             <v>4.3258940152277797E-2</v>
-          </cell>
-          <cell r="F32">
-            <v>5.0858132577547002E-3</v>
           </cell>
           <cell r="G32">
             <v>3.5483012507753198E-4</v>
@@ -1047,10 +1047,10 @@
             <v>3.8494250002105303E-2</v>
           </cell>
           <cell r="E33">
+            <v>2.1274262528785799E-2</v>
+          </cell>
+          <cell r="F33">
             <v>2.4802402167418702E-2</v>
-          </cell>
-          <cell r="F33">
-            <v>2.1274262528785799E-2</v>
           </cell>
           <cell r="G33">
             <v>3.1923383878691399E-3</v>
@@ -1073,10 +1073,10 @@
             <v>4.79106696398406E-2</v>
           </cell>
           <cell r="E34">
+            <v>2.45662744857418E-2</v>
+          </cell>
+          <cell r="F34">
             <v>8.6693686333065793E-3</v>
-          </cell>
-          <cell r="F34">
-            <v>2.45662744857418E-2</v>
           </cell>
           <cell r="G34">
             <v>8.8393883143287298E-3</v>
@@ -1099,10 +1099,10 @@
             <v>-5.9091967193771701E-3</v>
           </cell>
           <cell r="E35">
+            <v>3.1508028596025202E-2</v>
+          </cell>
+          <cell r="F35">
             <v>4.4536155343569001E-2</v>
-          </cell>
-          <cell r="F35">
-            <v>3.1508028596025202E-2</v>
           </cell>
           <cell r="G35">
             <v>5.2571628844300103E-3</v>
@@ -1125,10 +1125,10 @@
             <v>5.3304956607869998E-2</v>
           </cell>
           <cell r="E36">
+            <v>1.6466609576614399E-2</v>
+          </cell>
+          <cell r="F36">
             <v>3.4715010355074002E-2</v>
-          </cell>
-          <cell r="F36">
-            <v>1.6466609576614399E-2</v>
           </cell>
           <cell r="G36">
             <v>8.7161160986659603E-4</v>
@@ -1151,10 +1151,10 @@
             <v>6.3018223739635504E-2</v>
           </cell>
           <cell r="E37">
+            <v>1.2615751483261E-2</v>
+          </cell>
+          <cell r="F37">
             <v>5.2964903842096997E-2</v>
-          </cell>
-          <cell r="F37">
-            <v>1.2615751483261E-2</v>
           </cell>
           <cell r="G37">
             <v>-2.5254724375162198E-3</v>
@@ -1177,10 +1177,10 @@
             <v>0.241430910247453</v>
           </cell>
           <cell r="E38">
+            <v>1.4059084819854699E-2</v>
+          </cell>
+          <cell r="F38">
             <v>7.0975200253244903E-3</v>
-          </cell>
-          <cell r="F38">
-            <v>1.4059084819854699E-2</v>
           </cell>
           <cell r="G38">
             <v>4.4525929806180599E-3</v>
@@ -1203,10 +1203,10 @@
             <v>0.172963533842832</v>
           </cell>
           <cell r="E39">
+            <v>-2.1846145288686201E-2</v>
+          </cell>
+          <cell r="F39">
             <v>-2.2625111780217401E-2</v>
-          </cell>
-          <cell r="F39">
-            <v>-2.1846145288686201E-2</v>
           </cell>
           <cell r="G39">
             <v>-3.3898305084746299E-3</v>
@@ -1229,10 +1229,10 @@
             <v>0.16412396415722399</v>
           </cell>
           <cell r="E40">
+            <v>9.9799547916577004E-3</v>
+          </cell>
+          <cell r="F40">
             <v>7.6034869585086496E-3</v>
-          </cell>
-          <cell r="F40">
-            <v>9.9799547916577004E-3</v>
           </cell>
           <cell r="G40">
             <v>1.2210012210012199E-3</v>
@@ -1255,10 +1255,10 @@
             <v>0.33410923342756699</v>
           </cell>
           <cell r="E41">
+            <v>4.3290683107413797E-2</v>
+          </cell>
+          <cell r="F41">
             <v>2.6162912550067099E-2</v>
-          </cell>
-          <cell r="F41">
-            <v>4.3290683107413797E-2</v>
           </cell>
           <cell r="G41">
             <v>-2.1777003484320101E-3</v>
@@ -1281,10 +1281,10 @@
             <v>9.3268700452315806E-2</v>
           </cell>
           <cell r="E42">
+            <v>3.2549228600147001E-2</v>
+          </cell>
+          <cell r="F42">
             <v>1.5526862076738099E-2</v>
-          </cell>
-          <cell r="F42">
-            <v>3.2549228600147001E-2</v>
           </cell>
           <cell r="G42">
             <v>-1.15233522479266E-2</v>
@@ -1307,10 +1307,10 @@
             <v>-0.15987113678044901</v>
           </cell>
           <cell r="E43">
+            <v>-1.7816309730697401E-2</v>
+          </cell>
+          <cell r="F43">
             <v>5.5163035445058503E-2</v>
-          </cell>
-          <cell r="F43">
-            <v>-1.7816309730697401E-2</v>
           </cell>
           <cell r="G43">
             <v>-9.9796873620066097E-3</v>
@@ -1333,10 +1333,10 @@
             <v>0.22816934719588899</v>
           </cell>
           <cell r="E44">
+            <v>-3.1981907074200899E-2</v>
+          </cell>
+          <cell r="F44">
             <v>6.4861411499614399E-2</v>
-          </cell>
-          <cell r="F44">
-            <v>-3.1981907074200899E-2</v>
           </cell>
           <cell r="G44">
             <v>3.5682426404992602E-4</v>
@@ -1359,10 +1359,10 @@
             <v>0.112193159026829</v>
           </cell>
           <cell r="E45">
+            <v>1.2863592323074E-2</v>
+          </cell>
+          <cell r="F45">
             <v>3.4470652069835003E-2</v>
-          </cell>
-          <cell r="F45">
-            <v>1.2863592323074E-2</v>
           </cell>
           <cell r="G45">
             <v>4.7262350633137098E-3</v>
@@ -1385,10 +1385,10 @@
             <v>3.7980364404377701E-2</v>
           </cell>
           <cell r="E46">
+            <v>3.5794001316155503E-2</v>
+          </cell>
+          <cell r="F46">
             <v>0.13168410457911001</v>
-          </cell>
-          <cell r="F46">
-            <v>3.5794001316155503E-2</v>
           </cell>
           <cell r="G46">
             <v>-3.8164551344634901E-3</v>
@@ -1411,10 +1411,10 @@
             <v>-0.10493779076057599</v>
           </cell>
           <cell r="E47">
+            <v>1.4822335025380899E-2</v>
+          </cell>
+          <cell r="F47">
             <v>0.15511152816969101</v>
-          </cell>
-          <cell r="F47">
-            <v>1.4822335025380899E-2</v>
           </cell>
           <cell r="G47">
             <v>8.9094796863875602E-4</v>
@@ -1437,10 +1437,10 @@
             <v>-9.3897542142810597E-2</v>
           </cell>
           <cell r="E48">
+            <v>-4.4043423821141299E-2</v>
+          </cell>
+          <cell r="F48">
             <v>-8.6403415604074704E-2</v>
-          </cell>
-          <cell r="F48">
-            <v>-4.4043423821141299E-2</v>
           </cell>
           <cell r="G48">
             <v>-4.4507744347516099E-3</v>
@@ -1463,10 +1463,10 @@
             <v>0.20002051937795701</v>
           </cell>
           <cell r="E49">
+            <v>-8.6284888666838793E-3</v>
+          </cell>
+          <cell r="F49">
             <v>-2.9010309803827E-2</v>
-          </cell>
-          <cell r="F49">
-            <v>-8.6284888666838793E-3</v>
           </cell>
           <cell r="G49">
             <v>-5.36480686695318E-4</v>
@@ -1489,10 +1489,10 @@
             <v>-5.7439531829857803E-2</v>
           </cell>
           <cell r="E50">
+            <v>-6.1163474897164102E-2</v>
+          </cell>
+          <cell r="F50">
             <v>-0.15665209895497201</v>
-          </cell>
-          <cell r="F50">
-            <v>-6.1163474897164102E-2</v>
           </cell>
           <cell r="G50">
             <v>8.0515297906602595E-3</v>
@@ -1515,10 +1515,10 @@
             <v>8.4530756966729306E-2</v>
           </cell>
           <cell r="E51">
+            <v>-3.4761162090602302E-2</v>
+          </cell>
+          <cell r="F51">
             <v>3.7343946513731699E-2</v>
-          </cell>
-          <cell r="F51">
-            <v>-3.4761162090602302E-2</v>
           </cell>
           <cell r="G51">
             <v>1.67731629392971E-2</v>
@@ -1541,10 +1541,10 @@
             <v>-0.20039457317546999</v>
           </cell>
           <cell r="E52">
+            <v>-5.9595830546433897E-3</v>
+          </cell>
+          <cell r="F52">
             <v>-6.0927618453347598E-2</v>
-          </cell>
-          <cell r="F52">
-            <v>-5.9595830546433897E-3</v>
           </cell>
           <cell r="G52">
             <v>7.6808937767305404E-3</v>
@@ -1567,10 +1567,10 @@
             <v>-3.4845842014708903E-2</v>
           </cell>
           <cell r="E53">
+            <v>4.7546684811370601E-2</v>
+          </cell>
+          <cell r="F53">
             <v>0.12718828237971699</v>
-          </cell>
-          <cell r="F53">
-            <v>4.7546684811370601E-2</v>
           </cell>
           <cell r="G53">
             <v>7.7955825032494097E-4</v>
@@ -1593,10 +1593,10 @@
             <v>-3.7801760514124601E-2</v>
           </cell>
           <cell r="E54">
+            <v>1.06741532487966E-2</v>
+          </cell>
+          <cell r="F54">
             <v>-4.7455403206796302E-2</v>
-          </cell>
-          <cell r="F54">
-            <v>1.06741532487966E-2</v>
           </cell>
           <cell r="G54">
             <v>9.5205123766661803E-4</v>
@@ -1619,10 +1619,10 @@
             <v>-0.25080073095573002</v>
           </cell>
           <cell r="E55">
+            <v>-8.5962381639269406E-2</v>
+          </cell>
+          <cell r="F55">
             <v>-9.9094994406968798E-2</v>
-          </cell>
-          <cell r="F55">
-            <v>-8.5962381639269406E-2</v>
           </cell>
           <cell r="G55">
             <v>-1.8158236057069801E-3</v>
@@ -1645,10 +1645,10 @@
             <v>7.2324641150706095E-2</v>
           </cell>
           <cell r="E56">
+            <v>-9.8593749999998908E-3</v>
+          </cell>
+          <cell r="F56">
             <v>2.8463013350035E-2</v>
-          </cell>
-          <cell r="F56">
-            <v>-9.8593749999998908E-3</v>
           </cell>
           <cell r="G56">
             <v>-4.6777546777546598E-3</v>
@@ -1671,10 +1671,10 @@
             <v>-0.23533574151279099</v>
           </cell>
           <cell r="E57">
+            <v>1.21905032429104E-2</v>
+          </cell>
+          <cell r="F57">
             <v>-6.4634312719302103E-2</v>
-          </cell>
-          <cell r="F57">
-            <v>1.21905032429104E-2</v>
           </cell>
           <cell r="G57">
             <v>4.5256744995647597E-3</v>
@@ -1697,10 +1697,10 @@
             <v>-7.4185209682214995E-2</v>
           </cell>
           <cell r="E58">
+            <v>-9.0791453271283004E-2</v>
+          </cell>
+          <cell r="F58">
             <v>-0.152652450389337</v>
-          </cell>
-          <cell r="F58">
-            <v>-9.0791453271283004E-2</v>
           </cell>
           <cell r="G58">
             <v>4.12406861895687E-2</v>
@@ -1723,10 +1723,10 @@
             <v>-0.26871663449595801</v>
           </cell>
           <cell r="E59">
+            <v>-0.169424534449055</v>
+          </cell>
+          <cell r="F59">
             <v>-0.224661057892034</v>
-          </cell>
-          <cell r="F59">
-            <v>-0.169424534449055</v>
           </cell>
           <cell r="G59">
             <v>4.1105009152937202E-2</v>
@@ -1749,10 +1749,10 @@
             <v>0.17888864561446599</v>
           </cell>
           <cell r="E60">
+            <v>-7.4849032258064496E-2</v>
+          </cell>
+          <cell r="F60">
             <v>-5.7578638893887001E-3</v>
-          </cell>
-          <cell r="F60">
-            <v>-7.4849032258064496E-2</v>
           </cell>
           <cell r="G60">
             <v>1.31873401534526E-2</v>
@@ -1775,10 +1775,10 @@
             <v>5.3209698878601101E-2</v>
           </cell>
           <cell r="E61">
+            <v>7.8215656520574904E-3</v>
+          </cell>
+          <cell r="F61">
             <v>3.5946980525293701E-2</v>
-          </cell>
-          <cell r="F61">
-            <v>7.8215656520574904E-3</v>
           </cell>
           <cell r="G61">
             <v>2.23238936656938E-2</v>
@@ -1801,10 +1801,10 @@
             <v>0.15398778921468301</v>
           </cell>
           <cell r="E62">
+            <v>-8.5657348463880401E-2</v>
+          </cell>
+          <cell r="F62">
             <v>-7.7099704844083003E-2</v>
-          </cell>
-          <cell r="F62">
-            <v>-8.5657348463880401E-2</v>
           </cell>
           <cell r="G62">
             <v>-1.13425925925926E-2</v>
@@ -1827,10 +1827,10 @@
             <v>7.9919770589281305E-2</v>
           </cell>
           <cell r="E63">
+            <v>-0.10993122487528501</v>
+          </cell>
+          <cell r="F63">
             <v>-3.5143268558036102E-2</v>
-          </cell>
-          <cell r="F63">
-            <v>-0.10993122487528501</v>
           </cell>
           <cell r="G63">
             <v>-3.35596659642545E-3</v>
@@ -1853,10 +1853,10 @@
             <v>0.20570520933623301</v>
           </cell>
           <cell r="E64">
+            <v>8.5404508291501605E-2</v>
+          </cell>
+          <cell r="F64">
             <v>5.9668657479091398E-2</v>
-          </cell>
-          <cell r="F64">
-            <v>8.5404508291501605E-2</v>
           </cell>
           <cell r="G64">
             <v>1.8794048551291601E-3</v>
@@ -1879,10 +1879,10 @@
             <v>5.9053342886791399E-2</v>
           </cell>
           <cell r="E65">
+            <v>9.3925075513554807E-2</v>
+          </cell>
+          <cell r="F65">
             <v>0.14326516693645</v>
-          </cell>
-          <cell r="F65">
-            <v>9.3925075513554807E-2</v>
           </cell>
           <cell r="G65">
             <v>-9.3793965921529199E-4</v>
@@ -1905,10 +1905,10 @@
             <v>6.1736099567852899E-2</v>
           </cell>
           <cell r="E66">
+            <v>5.3081426656431702E-2</v>
+          </cell>
+          <cell r="F66">
             <v>0.17073716082882401</v>
-          </cell>
-          <cell r="F66">
-            <v>5.3081426656431702E-2</v>
           </cell>
           <cell r="G66">
             <v>7.3540916914409697E-3</v>
@@ -1931,10 +1931,10 @@
             <v>5.3563777257207498E-2</v>
           </cell>
           <cell r="E67">
+            <v>1.95835237287056E-4</v>
+          </cell>
+          <cell r="F67">
             <v>1.1431979527819E-2</v>
-          </cell>
-          <cell r="F67">
-            <v>1.95835237287056E-4</v>
           </cell>
           <cell r="G67">
             <v>-5.04815159987559E-3</v>
@@ -1957,10 +1957,10 @@
             <v>0.13797355531719299</v>
           </cell>
           <cell r="E68">
+            <v>7.4141756950789603E-2</v>
+          </cell>
+          <cell r="F68">
             <v>0.119409749220709</v>
-          </cell>
-          <cell r="F68">
-            <v>7.4141756950789603E-2</v>
           </cell>
           <cell r="G68">
             <v>-8.3521973304192497E-3</v>
@@ -1983,10 +1983,10 @@
             <v>-0.165603433705376</v>
           </cell>
           <cell r="E69">
+            <v>3.3560173370599897E-2</v>
+          </cell>
+          <cell r="F69">
             <v>-4.1273852889766198E-2</v>
-          </cell>
-          <cell r="F69">
-            <v>3.3560173370599897E-2</v>
           </cell>
           <cell r="G69">
             <v>3.1486146095718302E-3</v>
@@ -2009,10 +2009,10 @@
             <v>3.7408820081287403E-2</v>
           </cell>
           <cell r="E70">
+            <v>3.5723383825517797E-2</v>
+          </cell>
+          <cell r="F70">
             <v>6.2413743287145003E-2</v>
-          </cell>
-          <cell r="F70">
-            <v>3.5723383825517797E-2</v>
           </cell>
           <cell r="G70">
             <v>-1.4908976773383401E-3</v>
@@ -2035,10 +2035,10 @@
             <v>0.125582871138612</v>
           </cell>
           <cell r="E71">
+            <v>-1.9761985847807102E-2</v>
+          </cell>
+          <cell r="F71">
             <v>3.8062972286181197E-2</v>
-          </cell>
-          <cell r="F71">
-            <v>-1.9761985847807102E-2</v>
           </cell>
           <cell r="G71">
             <v>-1.9646365422396599E-3</v>
@@ -2061,10 +2061,10 @@
             <v>0.15091244494384701</v>
           </cell>
           <cell r="E72">
+            <v>5.73639969503663E-2</v>
+          </cell>
+          <cell r="F72">
             <v>3.1550274901437402E-3</v>
-          </cell>
-          <cell r="F72">
-            <v>5.73639969503663E-2</v>
           </cell>
           <cell r="G72">
             <v>3.2283464566929001E-3</v>
@@ -2087,10 +2087,10 @@
             <v>1.8143257437357702E-2</v>
           </cell>
           <cell r="E73">
+            <v>1.7770597738287399E-2</v>
+          </cell>
+          <cell r="F73">
             <v>2.3371445592650399E-3</v>
-          </cell>
-          <cell r="F73">
-            <v>1.7770597738287399E-2</v>
           </cell>
           <cell r="G73">
             <v>2.9824974491798901E-3</v>
@@ -2113,10 +2113,10 @@
             <v>-2.4659913427441699E-2</v>
           </cell>
           <cell r="E74">
+            <v>-3.6974262397991203E-2</v>
+          </cell>
+          <cell r="F74">
             <v>-8.0032451708766703E-2</v>
-          </cell>
-          <cell r="F74">
-            <v>-3.6974262397991203E-2</v>
           </cell>
           <cell r="G74">
             <v>4.7734564519914501E-3</v>
@@ -2139,10 +2139,10 @@
             <v>5.9438368655405201E-2</v>
           </cell>
           <cell r="E75">
+            <v>2.8513693463827299E-2</v>
+          </cell>
+          <cell r="F75">
             <v>2.41879155671192E-2</v>
-          </cell>
-          <cell r="F75">
-            <v>2.8513693463827299E-2</v>
           </cell>
           <cell r="G75">
             <v>9.2679127725856496E-3</v>
@@ -2165,10 +2165,10 @@
             <v>2.62124323387787E-2</v>
           </cell>
           <cell r="E76">
+            <v>5.8796367554255803E-2</v>
+          </cell>
+          <cell r="F76">
             <v>3.0601174478785301E-2</v>
-          </cell>
-          <cell r="F76">
-            <v>5.8796367554255803E-2</v>
           </cell>
           <cell r="G76">
             <v>6.7134809784705797E-3</v>
@@ -2191,10 +2191,10 @@
             <v>-6.6750529892095706E-2</v>
           </cell>
           <cell r="E77">
+            <v>1.4759327193590001E-2</v>
+          </cell>
+          <cell r="F77">
             <v>-6.15648795573287E-3</v>
-          </cell>
-          <cell r="F77">
-            <v>1.4759327193590001E-2</v>
           </cell>
           <cell r="G77">
             <v>7.4352291890234E-3</v>
@@ -2217,10 +2217,10 @@
             <v>-7.5318996792064996E-2</v>
           </cell>
           <cell r="E78">
+            <v>-8.1975916203894897E-2</v>
+          </cell>
+          <cell r="F78">
             <v>-6.3642351892214094E-2</v>
-          </cell>
-          <cell r="F78">
-            <v>-8.1975916203894897E-2</v>
           </cell>
           <cell r="G78">
             <v>8.9781632808339003E-3</v>
@@ -2243,10 +2243,10 @@
             <v>-0.107178603067369</v>
           </cell>
           <cell r="E79">
+            <v>-5.3882376699314401E-2</v>
+          </cell>
+          <cell r="F79">
             <v>1.8406132660655699E-2</v>
-          </cell>
-          <cell r="F79">
-            <v>-5.3882376699314401E-2</v>
           </cell>
           <cell r="G79">
             <v>4.2983183771963E-3</v>
@@ -2269,10 +2269,10 @@
             <v>0.143722519855564</v>
           </cell>
           <cell r="E80">
+            <v>6.8777832756061294E-2</v>
+          </cell>
+          <cell r="F80">
             <v>4.4752384051535803E-2</v>
-          </cell>
-          <cell r="F80">
-            <v>6.8777832756061294E-2</v>
           </cell>
           <cell r="G80">
             <v>6.4574260399459203E-3</v>
@@ -2295,10 +2295,10 @@
             <v>9.5000393688575505E-2</v>
           </cell>
           <cell r="E81">
+            <v>-4.7449164851125603E-2</v>
+          </cell>
+          <cell r="F81">
             <v>-2.3458142906233E-2</v>
-          </cell>
-          <cell r="F81">
-            <v>-4.7449164851125603E-2</v>
           </cell>
           <cell r="G81">
             <v>4.7746941211579399E-3</v>
@@ -2321,10 +2321,10 @@
             <v>1.55396620260786E-2</v>
           </cell>
           <cell r="E82">
+            <v>8.75511040378147E-2</v>
+          </cell>
+          <cell r="F82">
             <v>8.8704529462390894E-2</v>
-          </cell>
-          <cell r="F82">
-            <v>8.75511040378147E-2</v>
           </cell>
           <cell r="G82">
             <v>8.9100089100102597E-4</v>
@@ -2347,10 +2347,10 @@
             <v>8.4728699385594894E-2</v>
           </cell>
           <cell r="E83">
+            <v>3.6855941114616098E-2</v>
+          </cell>
+          <cell r="F83">
             <v>3.3014781768878197E-2</v>
-          </cell>
-          <cell r="F83">
-            <v>3.6855941114616098E-2</v>
           </cell>
           <cell r="G83">
             <v>-1.0756676557863601E-2</v>
@@ -2373,10 +2373,10 @@
             <v>1.0955016841090799E-2</v>
           </cell>
           <cell r="E84">
+            <v>-2.2902827780877399E-3</v>
+          </cell>
+          <cell r="F84">
             <v>-3.82441878186646E-3</v>
-          </cell>
-          <cell r="F84">
-            <v>-2.2902827780877399E-3</v>
           </cell>
           <cell r="G84">
             <v>-2.0397450318710202E-2</v>
@@ -2399,10 +2399,10 @@
             <v>-3.4076161127008502E-2</v>
           </cell>
           <cell r="E85">
+            <v>6.5300072000338896E-2</v>
+          </cell>
+          <cell r="F85">
             <v>1.19349843250105E-3</v>
-          </cell>
-          <cell r="F85">
-            <v>6.5300072000338896E-2</v>
           </cell>
           <cell r="G85">
             <v>8.5738344943735393E-3</v>
@@ -2425,10 +2425,10 @@
             <v>-6.6006632749382593E-2</v>
           </cell>
           <cell r="E86">
+            <v>2.2645590152984701E-2</v>
+          </cell>
+          <cell r="F86">
             <v>1.7880701266960199E-2</v>
-          </cell>
-          <cell r="F86">
-            <v>2.2645590152984701E-2</v>
           </cell>
           <cell r="G86">
             <v>-7.5901328273242396E-4</v>
@@ -2451,10 +2451,10 @@
             <v>0.10504504582659201</v>
           </cell>
           <cell r="E87">
+            <v>3.1956582589494097E-2</v>
+          </cell>
+          <cell r="F87">
             <v>-4.6623625537054502E-3</v>
-          </cell>
-          <cell r="F87">
-            <v>3.1956582589494097E-2</v>
           </cell>
           <cell r="G87">
             <v>-2.1268515001898699E-3</v>
@@ -2477,10 +2477,10 @@
             <v>-1.8606894949136501E-2</v>
           </cell>
           <cell r="E88">
+            <v>-1.0473018791158401E-3</v>
+          </cell>
+          <cell r="F88">
             <v>8.1197976520714903E-3</v>
-          </cell>
-          <cell r="F88">
-            <v>-1.0473018791158401E-3</v>
           </cell>
           <cell r="G88">
             <v>7.1553627159930402E-3</v>
@@ -2503,10 +2503,10 @@
             <v>-3.2704570552527602E-2</v>
           </cell>
           <cell r="E89">
+            <v>2.8495357625034901E-2</v>
+          </cell>
+          <cell r="F89">
             <v>8.2154855250362608E-3</v>
-          </cell>
-          <cell r="F89">
-            <v>2.8495357625034901E-2</v>
           </cell>
           <cell r="G89">
             <v>4.00574408585896E-3</v>
@@ -2529,10 +2529,10 @@
             <v>-8.1166193150689001E-2</v>
           </cell>
           <cell r="E90">
+            <v>-1.35009276846018E-2</v>
+          </cell>
+          <cell r="F90">
             <v>-1.5463215632181E-3</v>
-          </cell>
-          <cell r="F90">
-            <v>-1.35009276846018E-2</v>
           </cell>
           <cell r="G90">
             <v>9.3345377898224093E-3</v>
@@ -2555,10 +2555,10 @@
             <v>3.0388751733690701E-2</v>
           </cell>
           <cell r="E91">
+            <v>-1.82575081772227E-2</v>
+          </cell>
+          <cell r="F91">
             <v>-5.4299229061823398E-2</v>
-          </cell>
-          <cell r="F91">
-            <v>-1.82575081772227E-2</v>
           </cell>
           <cell r="G91">
             <v>-4.3257756563246401E-3</v>
@@ -2581,10 +2581,10 @@
             <v>1.06976301347008E-2</v>
           </cell>
           <cell r="E92">
+            <v>-2.14744366367823E-2</v>
+          </cell>
+          <cell r="F92">
             <v>1.8818560502900099E-3</v>
-          </cell>
-          <cell r="F92">
-            <v>-2.14744366367823E-2</v>
           </cell>
           <cell r="G92">
             <v>-8.5393258426965692E-3</v>
@@ -2607,10 +2607,10 @@
             <v>-4.2733000311127999E-2</v>
           </cell>
           <cell r="E93">
+            <v>-5.6791097904478803E-2</v>
+          </cell>
+          <cell r="F93">
             <v>-8.4909927474070099E-2</v>
-          </cell>
-          <cell r="F93">
-            <v>-5.6791097904478803E-2</v>
           </cell>
           <cell r="G93">
             <v>-1.0577213659717099E-3</v>
@@ -2633,10 +2633,10 @@
             <v>-0.12948991747729</v>
           </cell>
           <cell r="E94">
+            <v>-7.1762012979022002E-2</v>
+          </cell>
+          <cell r="F94">
             <v>-0.14329006542536199</v>
-          </cell>
-          <cell r="F94">
-            <v>-7.1762012979022002E-2</v>
           </cell>
           <cell r="G94">
             <v>9.9833610648918398E-3</v>
@@ -2659,10 +2659,10 @@
             <v>3.6956275986380599E-2</v>
           </cell>
           <cell r="E95">
+            <v>0.10772303830584599</v>
+          </cell>
+          <cell r="F95">
             <v>0.129172751203502</v>
-          </cell>
-          <cell r="F95">
-            <v>0.10772303830584599</v>
           </cell>
           <cell r="G95">
             <v>1.6007937696570301E-2</v>
@@ -2685,10 +2685,10 @@
             <v>-4.48621555138045E-2</v>
           </cell>
           <cell r="E96">
+            <v>-5.0586451767333802E-3</v>
+          </cell>
+          <cell r="F96">
             <v>-9.4413907566472902E-2</v>
-          </cell>
-          <cell r="F96">
-            <v>-5.0586451767333802E-3</v>
           </cell>
           <cell r="G96">
             <v>1.35740803389208E-2</v>
@@ -2711,10 +2711,10 @@
             <v>-0.144810313873876</v>
           </cell>
           <cell r="E97">
+            <v>8.5327516520175006E-3</v>
+          </cell>
+          <cell r="F97">
             <v>2.47390817344708E-2</v>
-          </cell>
-          <cell r="F97">
-            <v>8.5327516520175006E-3</v>
           </cell>
           <cell r="G97">
             <v>1.44248738723409E-2</v>
@@ -2737,10 +2737,10 @@
             <v>8.4851267687551194E-3</v>
           </cell>
           <cell r="E98">
+            <v>4.3583015267175701E-2</v>
+          </cell>
+          <cell r="F98">
             <v>0.106111457986947</v>
-          </cell>
-          <cell r="F98">
-            <v>4.3583015267175701E-2</v>
           </cell>
           <cell r="G98">
             <v>7.4220572876158002E-3</v>
@@ -2763,10 +2763,10 @@
             <v>0.12191553543579101</v>
           </cell>
           <cell r="E99">
+            <v>4.0589449943234199E-2</v>
+          </cell>
+          <cell r="F99">
             <v>6.3244679259792297E-2</v>
-          </cell>
-          <cell r="F99">
-            <v>4.0589449943234199E-2</v>
           </cell>
           <cell r="G99">
             <v>-4.6755871166974704E-3</v>
@@ -2789,10 +2789,10 @@
             <v>-7.5561991091256095E-2</v>
           </cell>
           <cell r="E100">
+            <v>3.13323765450177E-2</v>
+          </cell>
+          <cell r="F100">
             <v>-5.1867889786384597E-2</v>
-          </cell>
-          <cell r="F100">
-            <v>3.13323765450177E-2</v>
           </cell>
           <cell r="G100">
             <v>3.8861492664499201E-3</v>
@@ -2815,10 +2815,10 @@
             <v>7.2517542442526006E-2</v>
           </cell>
           <cell r="E101">
+            <v>-7.4974972842871699E-3</v>
+          </cell>
+          <cell r="F101">
             <v>2.6203590460595099E-2</v>
-          </cell>
-          <cell r="F101">
-            <v>-7.4974972842871699E-3</v>
           </cell>
           <cell r="G101">
             <v>9.7276126045930901E-4</v>
@@ -2841,10 +2841,10 @@
             <v>2.4273884623801801E-2</v>
           </cell>
           <cell r="E102">
+            <v>-6.2650671359386595E-2</v>
+          </cell>
+          <cell r="F102">
             <v>-0.11684201494154101</v>
-          </cell>
-          <cell r="F102">
-            <v>-6.2650671359386595E-2</v>
           </cell>
           <cell r="G102">
             <v>1.86473403831489E-2</v>
@@ -2867,10 +2867,10 @@
             <v>-7.5295323707178605E-2</v>
           </cell>
           <cell r="E103">
+            <v>3.95549212793724E-2</v>
+          </cell>
+          <cell r="F103">
             <v>4.3583516912942398E-2</v>
-          </cell>
-          <cell r="F103">
-            <v>3.95549212793724E-2</v>
           </cell>
           <cell r="G103">
             <v>4.4537503483310604E-3</v>
@@ -2893,10 +2893,10 @@
             <v>-8.98231471651256E-2</v>
           </cell>
           <cell r="E104">
+            <v>1.25976390438713E-2</v>
+          </cell>
+          <cell r="F104">
             <v>1.8277948261087501E-2</v>
-          </cell>
-          <cell r="F104">
-            <v>1.25976390438713E-2</v>
           </cell>
           <cell r="G104">
             <v>4.5661116225514898E-3</v>
@@ -2919,10 +2919,10 @@
             <v>-6.2332393852605498E-3</v>
           </cell>
           <cell r="E105">
+            <v>1.97633616564683E-2</v>
+          </cell>
+          <cell r="F105">
             <v>-1.58732644299764E-2</v>
-          </cell>
-          <cell r="F105">
-            <v>1.97633616564683E-2</v>
           </cell>
           <cell r="G105">
             <v>-5.4396163821117697E-3</v>
@@ -2945,10 +2945,10 @@
             <v>1.9191591017677902E-2</v>
           </cell>
           <cell r="E106">
+            <v>2.4236090375236601E-2</v>
+          </cell>
+          <cell r="F106">
             <v>6.9693577387377706E-2</v>
-          </cell>
-          <cell r="F106">
-            <v>2.4236090375236601E-2</v>
           </cell>
           <cell r="G106">
             <v>-7.8014520026281598E-4</v>
@@ -2971,10 +2971,10 @@
             <v>-9.8929542039507493E-3</v>
           </cell>
           <cell r="E107">
+            <v>-1.9789403541407801E-2</v>
+          </cell>
+          <cell r="F107">
             <v>3.8456112604472702E-2</v>
-          </cell>
-          <cell r="F107">
-            <v>-1.9789403541407801E-2</v>
           </cell>
           <cell r="G107">
             <v>1.50509370792817E-3</v>
@@ -2997,10 +2997,10 @@
             <v>-0.11094136322214899</v>
           </cell>
           <cell r="E108">
+            <v>2.8467029231815698E-3</v>
+          </cell>
+          <cell r="F108">
             <v>1.79545897711006E-2</v>
-          </cell>
-          <cell r="F108">
-            <v>2.8467029231815698E-3</v>
           </cell>
           <cell r="G108">
             <v>2.0118891312088699E-3</v>
@@ -3023,10 +3023,10 @@
             <v>0.163044836655514</v>
           </cell>
           <cell r="E109">
+            <v>7.0683105254980604E-3</v>
+          </cell>
+          <cell r="F109">
             <v>2.8439351277939302E-2</v>
-          </cell>
-          <cell r="F109">
-            <v>7.0683105254980604E-3</v>
           </cell>
           <cell r="G109">
             <v>2.25978505668545E-3</v>
@@ -3049,10 +3049,10 @@
             <v>6.2205955077445203E-2</v>
           </cell>
           <cell r="E110">
+            <v>5.0428063581991103E-2</v>
+          </cell>
+          <cell r="F110">
             <v>4.7341386207833999E-2</v>
-          </cell>
-          <cell r="F110">
-            <v>5.0428063581991103E-2</v>
           </cell>
           <cell r="G110">
             <v>5.0688975355601702E-3</v>
@@ -3075,10 +3075,10 @@
             <v>3.6946659393879401E-2</v>
           </cell>
           <cell r="E111">
+            <v>1.10606030264802E-2</v>
+          </cell>
+          <cell r="F111">
             <v>-2.98893404125576E-2</v>
-          </cell>
-          <cell r="F111">
-            <v>1.10606030264802E-2</v>
           </cell>
           <cell r="G111">
             <v>5.1838853096379802E-3</v>
@@ -3101,10 +3101,10 @@
             <v>-4.4596764202861398E-2</v>
           </cell>
           <cell r="E112">
+            <v>3.59877994031743E-2</v>
+          </cell>
+          <cell r="F112">
             <v>-3.1304585046135397E-2</v>
-          </cell>
-          <cell r="F112">
-            <v>3.59877994031743E-2</v>
           </cell>
           <cell r="G112">
             <v>3.89185335979092E-3</v>
@@ -3127,10 +3127,10 @@
             <v>-2.30671383422025E-2</v>
           </cell>
           <cell r="E113">
+            <v>1.8085763992887999E-2</v>
+          </cell>
+          <cell r="F113">
             <v>1.9613778345201099E-2</v>
-          </cell>
-          <cell r="F113">
-            <v>1.8085763992887999E-2</v>
           </cell>
           <cell r="G113">
             <v>8.0204940110868393E-3</v>
@@ -3153,10 +3153,10 @@
             <v>0.14058340157837601</v>
           </cell>
           <cell r="E114">
+            <v>2.07627834774065E-2</v>
+          </cell>
+          <cell r="F114">
             <v>-1.5166901892553101E-2</v>
-          </cell>
-          <cell r="F114">
-            <v>2.07627834774065E-2</v>
           </cell>
           <cell r="G114">
             <v>5.6178329280600599E-3</v>
@@ -3179,10 +3179,10 @@
             <v>-0.15756460580992801</v>
           </cell>
           <cell r="E115">
+            <v>-1.49993254596074E-2</v>
+          </cell>
+          <cell r="F115">
             <v>-7.0956531214496396E-2</v>
-          </cell>
-          <cell r="F115">
-            <v>-1.49993254596074E-2</v>
           </cell>
           <cell r="G115">
             <v>-3.8022070987103799E-3</v>
@@ -3205,10 +3205,10 @@
             <v>6.0187368393728201E-2</v>
           </cell>
           <cell r="E116">
+            <v>4.9462111213487203E-2</v>
+          </cell>
+          <cell r="F116">
             <v>5.1932651037408101E-2</v>
-          </cell>
-          <cell r="F116">
-            <v>4.9462111213487203E-2</v>
           </cell>
           <cell r="G116">
             <v>-4.8302286853652001E-3</v>
@@ -3231,10 +3231,10 @@
             <v>6.8033367699066996E-2</v>
           </cell>
           <cell r="E117">
+            <v>-3.1298013323604601E-2</v>
+          </cell>
+          <cell r="F117">
             <v>-6.9590735736161403E-3</v>
-          </cell>
-          <cell r="F117">
-            <v>-3.1298013323604601E-2</v>
           </cell>
           <cell r="G117">
             <v>-8.1664543524415708E-3</v>
@@ -3257,10 +3257,10 @@
             <v>5.6969587472994999E-2</v>
           </cell>
           <cell r="E118">
+            <v>2.9749474883188399E-2</v>
+          </cell>
+          <cell r="F118">
             <v>5.1929077642136799E-2</v>
-          </cell>
-          <cell r="F118">
-            <v>2.9749474883188399E-2</v>
           </cell>
           <cell r="G118">
             <v>1.72482883574054E-3</v>
@@ -3283,10 +3283,10 @@
             <v>-4.1071106276367599E-2</v>
           </cell>
           <cell r="E119">
+            <v>4.4595759864410903E-2</v>
+          </cell>
+          <cell r="F119">
             <v>1.51580105914908E-2</v>
-          </cell>
-          <cell r="F119">
-            <v>4.4595759864410903E-2</v>
           </cell>
           <cell r="G119">
             <v>-6.63100317087373E-3</v>
@@ -3309,10 +3309,10 @@
             <v>6.2618391961503803E-2</v>
           </cell>
           <cell r="E120">
+            <v>2.80494608719415E-2</v>
+          </cell>
+          <cell r="F120">
             <v>2.9083393912964401E-2</v>
-          </cell>
-          <cell r="F120">
-            <v>2.80494608719415E-2</v>
           </cell>
           <cell r="G120">
             <v>-1.38413520977836E-2</v>
@@ -3335,10 +3335,10 @@
             <v>-2.9720125998921001E-2</v>
           </cell>
           <cell r="E121">
+            <v>2.35628332991842E-2</v>
+          </cell>
+          <cell r="F121">
             <v>-2.4073238924697999E-2</v>
-          </cell>
-          <cell r="F121">
-            <v>2.35628332991842E-2</v>
           </cell>
           <cell r="G121">
             <v>-2.7530960114311399E-3</v>
@@ -3361,10 +3361,10 @@
             <v>1.47084324864146E-2</v>
           </cell>
           <cell r="E122">
+            <v>-3.55828951070137E-2</v>
+          </cell>
+          <cell r="F122">
             <v>-5.4533113021793603E-2</v>
-          </cell>
-          <cell r="F122">
-            <v>-3.55828951070137E-2</v>
           </cell>
           <cell r="G122">
             <v>8.8812669524893605E-3</v>
@@ -3387,10 +3387,10 @@
             <v>2.3295575042672399E-2</v>
           </cell>
           <cell r="E123">
+            <v>4.3117037568930698E-2</v>
+          </cell>
+          <cell r="F123">
             <v>3.6375072496916301E-2</v>
-          </cell>
-          <cell r="F123">
-            <v>4.3117037568930698E-2</v>
           </cell>
           <cell r="G123">
             <v>1.66847867187765E-2</v>
@@ -3413,10 +3413,10 @@
             <v>-3.4053173484737798E-2</v>
           </cell>
           <cell r="E124">
+            <v>6.9321573583585004E-3</v>
+          </cell>
+          <cell r="F124">
             <v>-3.00346455920577E-2</v>
-          </cell>
-          <cell r="F124">
-            <v>6.9321573583585004E-3</v>
           </cell>
           <cell r="G124">
             <v>8.9807221565196805E-4</v>
@@ -3439,10 +3439,10 @@
             <v>-1.93634430194118E-2</v>
           </cell>
           <cell r="E125">
+            <v>6.2007968638175797E-3</v>
+          </cell>
+          <cell r="F125">
             <v>-7.7152064054719605E-4</v>
-          </cell>
-          <cell r="F125">
-            <v>6.2007968638175797E-3</v>
           </cell>
           <cell r="G125">
             <v>9.0476635278251595E-3</v>
@@ -3465,10 +3465,10 @@
             <v>1.67459249051423E-2</v>
           </cell>
           <cell r="E126">
+            <v>2.1030282120013701E-2</v>
+          </cell>
+          <cell r="F126">
             <v>4.2815635875534303E-2</v>
-          </cell>
-          <cell r="F126">
-            <v>2.1030282120013701E-2</v>
           </cell>
           <cell r="G126">
             <v>1.22044911067762E-2</v>
@@ -3491,10 +3491,10 @@
             <v>2.4982777252288799E-2</v>
           </cell>
           <cell r="E127">
+            <v>1.90583134484319E-2</v>
+          </cell>
+          <cell r="F127">
             <v>4.7253987474897797E-3</v>
-          </cell>
-          <cell r="F127">
-            <v>1.90583134484319E-2</v>
           </cell>
           <cell r="G127">
             <v>7.8644387316764205E-3</v>
@@ -3517,10 +3517,10 @@
             <v>8.4624256956159299E-2</v>
           </cell>
           <cell r="E128">
+            <v>-1.5079863077291899E-2</v>
+          </cell>
+          <cell r="F128">
             <v>6.7532616494873701E-2</v>
-          </cell>
-          <cell r="F128">
-            <v>-1.5079863077291899E-2</v>
           </cell>
           <cell r="G128">
             <v>-2.15592897025418E-3</v>
@@ -3543,10 +3543,10 @@
             <v>4.0129714391085702E-2</v>
           </cell>
           <cell r="E129">
+            <v>3.7655321727690302E-2</v>
+          </cell>
+          <cell r="F129">
             <v>-5.9741041368333004E-4</v>
-          </cell>
-          <cell r="F129">
-            <v>3.7655321727690302E-2</v>
           </cell>
           <cell r="G129">
             <v>8.1146471870883197E-3</v>
@@ -3569,10 +3569,10 @@
             <v>0.11026498239902199</v>
           </cell>
           <cell r="E130">
+            <v>-1.55138591473367E-2</v>
+          </cell>
+          <cell r="F130">
             <v>-7.3117598130471001E-2</v>
-          </cell>
-          <cell r="F130">
-            <v>-1.55138591473367E-2</v>
           </cell>
           <cell r="G130">
             <v>9.5788669704233199E-3</v>
@@ -3595,10 +3595,10 @@
             <v>1.4299287710488801E-2</v>
           </cell>
           <cell r="E131">
+            <v>2.3201456175308902E-2</v>
+          </cell>
+          <cell r="F131">
             <v>4.6443157409111299E-2</v>
-          </cell>
-          <cell r="F131">
-            <v>2.3201456175308902E-2</v>
           </cell>
           <cell r="G131">
             <v>1.6854408898929502E-2</v>
@@ -3621,10 +3621,10 @@
             <v>5.19112324362829E-2</v>
           </cell>
           <cell r="E132">
+            <v>2.4533584400783001E-2</v>
+          </cell>
+          <cell r="F132">
             <v>-4.42119071291658E-4</v>
-          </cell>
-          <cell r="F132">
-            <v>2.4533584400783001E-2</v>
           </cell>
           <cell r="G132">
             <v>1.7460784747596499E-2</v>
@@ -3647,10 +3647,10 @@
             <v>1.47651206316095E-2</v>
           </cell>
           <cell r="E133">
+            <v>-4.1885120625277904E-3</v>
+          </cell>
+          <cell r="F133">
             <v>-1.59420863826709E-2</v>
-          </cell>
-          <cell r="F133">
-            <v>-4.1885120625277904E-3</v>
           </cell>
           <cell r="G133">
             <v>-2.0014183279488699E-3</v>
@@ -3673,10 +3673,10 @@
             <v>5.82435952786493E-2</v>
           </cell>
           <cell r="E134">
+            <v>-3.1040847054252401E-2</v>
+          </cell>
+          <cell r="F134">
             <v>3.8212602054476401E-2</v>
-          </cell>
-          <cell r="F134">
-            <v>-3.1040847054252401E-2</v>
           </cell>
           <cell r="G134">
             <v>1.09518696311268E-2</v>
@@ -3699,10 +3699,10 @@
             <v>6.84810273103902E-2</v>
           </cell>
           <cell r="E135">
+            <v>5.4892505726845703E-2</v>
+          </cell>
+          <cell r="F135">
             <v>1.2904041898147599E-2</v>
-          </cell>
-          <cell r="F135">
-            <v>5.4892505726845703E-2</v>
           </cell>
           <cell r="G135">
             <v>7.7248976750956501E-3</v>
@@ -3725,10 +3725,10 @@
             <v>0.20514224312752299</v>
           </cell>
           <cell r="E136">
+            <v>-1.73960560703256E-2</v>
+          </cell>
+          <cell r="F136">
             <v>3.1260965005039899E-3</v>
-          </cell>
-          <cell r="F136">
-            <v>-1.73960560703256E-2</v>
           </cell>
           <cell r="G136">
             <v>-9.1797212851610892E-3</v>
@@ -3751,10 +3751,10 @@
             <v>0.167730808768219</v>
           </cell>
           <cell r="E137">
+            <v>8.5207627098153899E-3</v>
+          </cell>
+          <cell r="F137">
             <v>0.129798975056715</v>
-          </cell>
-          <cell r="F137">
-            <v>8.5207627098153899E-3</v>
           </cell>
           <cell r="G137">
             <v>1.35423569407864E-2</v>
@@ -3777,10 +3777,10 @@
             <v>0.176768571820895</v>
           </cell>
           <cell r="E138">
+            <v>1.04914385450081E-2</v>
+          </cell>
+          <cell r="F138">
             <v>-2.51949667650091E-2</v>
-          </cell>
-          <cell r="F138">
-            <v>1.04914385450081E-2</v>
           </cell>
           <cell r="G138">
             <v>4.1457296515057303E-3</v>
@@ -3803,10 +3803,10 @@
             <v>-0.10643536645748999</v>
           </cell>
           <cell r="E139">
+            <v>-2.10117728564716E-2</v>
+          </cell>
+          <cell r="F139">
             <v>-4.2814755877931203E-2</v>
-          </cell>
-          <cell r="F139">
-            <v>-2.10117728564716E-2</v>
           </cell>
           <cell r="G139">
             <v>4.2878556663761298E-3</v>
@@ -3829,10 +3829,10 @@
             <v>-0.132377804397973</v>
           </cell>
           <cell r="E140">
+            <v>1.9742039930008601E-2</v>
+          </cell>
+          <cell r="F140">
             <v>-6.1476120217767397E-2</v>
-          </cell>
-          <cell r="F140">
-            <v>1.9742039930008601E-2</v>
           </cell>
           <cell r="G140">
             <v>1.2162764443856699E-2</v>
@@ -3855,10 +3855,10 @@
             <v>-0.14827735016657301</v>
           </cell>
           <cell r="E141">
+            <v>-6.2580804623925804E-2</v>
+          </cell>
+          <cell r="F141">
             <v>-0.12037937545765801</v>
-          </cell>
-          <cell r="F141">
-            <v>-6.2580804623925804E-2</v>
           </cell>
           <cell r="G141">
             <v>7.8407059841105707E-3</v>
@@ -3881,10 +3881,10 @@
             <v>-6.9527968181788496E-2</v>
           </cell>
           <cell r="E142">
+            <v>-2.6442819620927101E-2</v>
+          </cell>
+          <cell r="F142">
             <v>-3.8036822272408101E-2</v>
-          </cell>
-          <cell r="F142">
-            <v>-2.6442819620927101E-2</v>
           </cell>
           <cell r="G142">
             <v>5.4583383845718796E-3</v>
@@ -3907,10 +3907,10 @@
             <v>0.156970279245285</v>
           </cell>
           <cell r="E143">
+            <v>8.2983078389400305E-2</v>
+          </cell>
+          <cell r="F143">
             <v>8.6045964991389404E-2</v>
-          </cell>
-          <cell r="F143">
-            <v>8.2983078389400305E-2</v>
           </cell>
           <cell r="G143">
             <v>1.1509813155794701E-2</v>
@@ -3933,10 +3933,10 @@
             <v>4.5649900085682898E-2</v>
           </cell>
           <cell r="E144">
+            <v>5.0496306555847205E-4</v>
+          </cell>
+          <cell r="F144">
             <v>-2.84283950028358E-2</v>
-          </cell>
-          <cell r="F144">
-            <v>5.0496306555847205E-4</v>
           </cell>
           <cell r="G144">
             <v>-1.02676917048905E-4</v>
@@ -3959,10 +3959,10 @@
             <v>2.8250396023497E-2</v>
           </cell>
           <cell r="E145">
+            <v>-1.7530198374358801E-2</v>
+          </cell>
+          <cell r="F145">
             <v>-3.7287885937801199E-3</v>
-          </cell>
-          <cell r="F145">
-            <v>-1.7530198374358801E-2</v>
           </cell>
           <cell r="G145">
             <v>1.59531461903544E-2</v>
@@ -3985,10 +3985,10 @@
             <v>-0.28204926717276102</v>
           </cell>
           <cell r="E146">
+            <v>-5.0735344481736201E-2</v>
+          </cell>
+          <cell r="F146">
             <v>-0.101818439017267</v>
-          </cell>
-          <cell r="F146">
-            <v>-5.0735344481736201E-2</v>
           </cell>
           <cell r="G146">
             <v>2.2288779397427998E-3</v>
@@ -4011,10 +4011,10 @@
             <v>-2.1702135409072999E-2</v>
           </cell>
           <cell r="E147">
+            <v>-4.1283552550199802E-3</v>
+          </cell>
+          <cell r="F147">
             <v>-2.9018788189468001E-2</v>
-          </cell>
-          <cell r="F147">
-            <v>-4.1283552550199802E-3</v>
           </cell>
           <cell r="G147">
             <v>3.3552982007509801E-3</v>
@@ -4037,10 +4037,10 @@
             <v>0.150526133984241</v>
           </cell>
           <cell r="E148">
+            <v>6.5991108718941094E-2</v>
+          </cell>
+          <cell r="F148">
             <v>8.7106325734763498E-2</v>
-          </cell>
-          <cell r="F148">
-            <v>6.5991108718941094E-2</v>
           </cell>
           <cell r="G148">
             <v>6.9313508017931902E-3</v>
@@ -4063,10 +4063,10 @@
             <v>-2.76518760200316E-2</v>
           </cell>
           <cell r="E149">
+            <v>2.69936982337593E-3</v>
+          </cell>
+          <cell r="F149">
             <v>1.39747890665987E-2</v>
-          </cell>
-          <cell r="F149">
-            <v>2.69936982337593E-3</v>
           </cell>
           <cell r="G149">
             <v>-7.4401116619119403E-3</v>
@@ -4089,10 +4089,10 @@
             <v>-6.3939518784601503E-3</v>
           </cell>
           <cell r="E150">
+            <v>1.5329492083474601E-2</v>
+          </cell>
+          <cell r="F150">
             <v>-1.1959908957352799E-2</v>
-          </cell>
-          <cell r="F150">
-            <v>1.5329492083474601E-2</v>
           </cell>
           <cell r="G150">
             <v>3.9453226598851199E-3</v>
@@ -4115,10 +4115,10 @@
             <v>2.9621985853667501E-2</v>
           </cell>
           <cell r="E151">
+            <v>9.0607355409733103E-4</v>
+          </cell>
+          <cell r="F151">
             <v>-9.9543167961324607E-4</v>
-          </cell>
-          <cell r="F151">
-            <v>9.0607355409733103E-4</v>
           </cell>
           <cell r="G151">
             <v>7.1872035077054103E-3</v>
@@ -4141,10 +4141,10 @@
             <v>1.29661923889564E-2</v>
           </cell>
           <cell r="E152">
+            <v>3.5609807228685897E-2</v>
+          </cell>
+          <cell r="F152">
             <v>5.2754663882579801E-2</v>
-          </cell>
-          <cell r="F152">
-            <v>3.5609807228685897E-2</v>
           </cell>
           <cell r="G152">
             <v>9.7750162907412896E-3</v>
@@ -4167,10 +4167,10 @@
             <v>3.72919581402371E-2</v>
           </cell>
           <cell r="E153">
+            <v>-1.2191755612808201E-3</v>
+          </cell>
+          <cell r="F153">
             <v>4.9586206802041198E-2</v>
-          </cell>
-          <cell r="F153">
-            <v>-1.2191755612808201E-3</v>
           </cell>
           <cell r="G153">
             <v>6.7317233879837799E-3</v>
@@ -4193,10 +4193,10 @@
             <v>-1.64938189850585E-2</v>
           </cell>
           <cell r="E154">
+            <v>-1.23448259978343E-3</v>
+          </cell>
+          <cell r="F154">
             <v>1.3938794126965999E-2</v>
-          </cell>
-          <cell r="F154">
-            <v>-1.23448259978343E-3</v>
           </cell>
           <cell r="G154">
             <v>5.3293508459317804E-3</v>
@@ -4219,10 +4219,10 @@
             <v>1.96141784175612E-2</v>
           </cell>
           <cell r="E155">
+            <v>-1.9425625037472201E-2</v>
+          </cell>
+          <cell r="F155">
             <v>-1.5564564764359599E-2</v>
-          </cell>
-          <cell r="F155">
-            <v>-1.9425625037472201E-2</v>
           </cell>
           <cell r="G155">
             <v>5.2485246913891396E-3</v>
@@ -4245,10 +4245,10 @@
             <v>2.0670729380640698E-2</v>
           </cell>
           <cell r="E156">
+            <v>3.4174446769983199E-2</v>
+          </cell>
+          <cell r="F156">
             <v>-6.3123132184033101E-3</v>
-          </cell>
-          <cell r="F156">
-            <v>3.4174446769983199E-2</v>
           </cell>
           <cell r="G156">
             <v>-8.0164022444592104E-3</v>
@@ -4271,10 +4271,10 @@
             <v>-4.8887435477185701E-2</v>
           </cell>
           <cell r="E157">
+            <v>1.8200754044232999E-2</v>
+          </cell>
+          <cell r="F157">
             <v>-3.4630011623636298E-2</v>
-          </cell>
-          <cell r="F157">
-            <v>1.8200754044232999E-2</v>
           </cell>
           <cell r="G157">
             <v>-1.5121932888254801E-2</v>
@@ -4291,10 +4291,10 @@
             <v>3.3722506449779033E-2</v>
           </cell>
           <cell r="E158">
+            <v>2.6599999999999999E-2</v>
+          </cell>
+          <cell r="F158">
             <v>6.2399999999999997E-2</v>
-          </cell>
-          <cell r="F158">
-            <v>2.6599999999999999E-2</v>
           </cell>
           <cell r="I158">
             <v>2.2884440725723398E-3</v>
@@ -4305,10 +4305,10 @@
             <v>2.8299252967403099E-3</v>
           </cell>
           <cell r="E159">
+            <v>3.7198299999999997E-2</v>
+          </cell>
+          <cell r="F159">
             <v>1.6264440000000002E-2</v>
-          </cell>
-          <cell r="F159">
-            <v>3.7198299999999997E-2</v>
           </cell>
           <cell r="I159">
             <v>2.8757100000000001E-3</v>
@@ -4319,7 +4319,7 @@
             <v>-4.6230875982300468E-3</v>
           </cell>
           <cell r="F160">
-            <v>-3.8923017041514463E-4</v>
+            <v>1.5621255117260535E-2</v>
           </cell>
           <cell r="I160">
             <v>3.0374365707390716E-3</v>
@@ -4330,7 +4330,7 @@
             <v>-5.3861637885369573E-3</v>
           </cell>
           <cell r="F161">
-            <v>2.0883733000000015E-2</v>
+            <v>9.0912169999999293E-3</v>
           </cell>
           <cell r="I161">
             <v>2.7244769999998919E-3</v>
@@ -4341,7 +4341,7 @@
             <v>5.6258095303020061E-2</v>
           </cell>
           <cell r="F162">
-            <v>1.1599999999999999E-2</v>
+            <v>4.2500000000000003E-2</v>
           </cell>
           <cell r="I162">
             <v>2.8E-3</v>
@@ -4352,7 +4352,7 @@
             <v>2.8595285347790211E-2</v>
           </cell>
           <cell r="F163">
-            <v>4.0501699999999641E-3</v>
+            <v>4.8138319999999624E-3</v>
           </cell>
           <cell r="I163">
             <v>2.9747920000000594E-3</v>
@@ -4360,7 +4360,7 @@
         </row>
         <row r="164">
           <cell r="F164">
-            <v>2.01E-2</v>
+            <v>6.0499999999999998E-2</v>
           </cell>
           <cell r="I164">
             <v>3.0999999999999999E-3</v>
@@ -4368,10 +4368,26 @@
         </row>
         <row r="165">
           <cell r="F165">
-            <v>5.1000000000000004E-4</v>
+            <v>2.3650000000000001E-2</v>
           </cell>
           <cell r="I165">
             <v>3.3E-3</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="F166">
+            <v>-1.4872918999999984E-2</v>
+          </cell>
+          <cell r="I166">
+            <v>3.1024079999999454E-3</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="F167">
+            <v>2.5100000000000001E-2</v>
+          </cell>
+          <cell r="I167">
+            <v>3.3999999999999998E-3</v>
           </cell>
         </row>
       </sheetData>
@@ -4646,8 +4662,8 @@
   <dimension ref="A1:P176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F167" sqref="F167"/>
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G168" sqref="G168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4857,11 +4873,11 @@
       </c>
       <c r="E14" s="5">
         <f>AVERAGE([1]Sheet1!E2:E13)</f>
-        <v>1.1388354759175308E-2</v>
+        <v>7.4030202070086608E-3</v>
       </c>
       <c r="F14" s="5">
         <f>AVERAGE([1]Sheet1!F2:F13)</f>
-        <v>7.4030202070086608E-3</v>
+        <v>1.1388354759175308E-2</v>
       </c>
       <c r="G14" s="5">
         <f>AVERAGE([1]Sheet1!G2:G13)</f>
@@ -4894,11 +4910,11 @@
       </c>
       <c r="E15" s="5">
         <f>AVERAGE([1]Sheet1!E3:E14)</f>
-        <v>3.6833335778058891E-3</v>
+        <v>3.8557809587893865E-3</v>
       </c>
       <c r="F15" s="5">
         <f>AVERAGE([1]Sheet1!F3:F14)</f>
-        <v>3.8557809587893865E-3</v>
+        <v>3.6833335778058891E-3</v>
       </c>
       <c r="G15" s="5">
         <f>AVERAGE([1]Sheet1!G3:G14)</f>
@@ -4931,11 +4947,11 @@
       </c>
       <c r="E16" s="5">
         <f>AVERAGE([1]Sheet1!E4:E15)</f>
-        <v>2.6867771505809154E-3</v>
+        <v>4.4136437703118283E-3</v>
       </c>
       <c r="F16" s="5">
         <f>AVERAGE([1]Sheet1!F4:F15)</f>
-        <v>4.4136437703118283E-3</v>
+        <v>2.6867771505809154E-3</v>
       </c>
       <c r="G16" s="5">
         <f>AVERAGE([1]Sheet1!G4:G15)</f>
@@ -4968,11 +4984,11 @@
       </c>
       <c r="E17" s="5">
         <f>AVERAGE([1]Sheet1!E5:E16)</f>
-        <v>6.0464108534895381E-3</v>
+        <v>4.1837511686959135E-3</v>
       </c>
       <c r="F17" s="5">
         <f>AVERAGE([1]Sheet1!F5:F16)</f>
-        <v>4.1837511686959135E-3</v>
+        <v>6.0464108534895381E-3</v>
       </c>
       <c r="G17" s="5">
         <f>AVERAGE([1]Sheet1!G5:G16)</f>
@@ -5005,11 +5021,11 @@
       </c>
       <c r="E18" s="5">
         <f>AVERAGE([1]Sheet1!E6:E17)</f>
-        <v>1.3317881549160573E-2</v>
+        <v>3.9072711392054782E-3</v>
       </c>
       <c r="F18" s="5">
         <f>AVERAGE([1]Sheet1!F6:F17)</f>
-        <v>3.9072711392054782E-3</v>
+        <v>1.3317881549160573E-2</v>
       </c>
       <c r="G18" s="5">
         <f>AVERAGE([1]Sheet1!G6:G17)</f>
@@ -5042,11 +5058,11 @@
       </c>
       <c r="E19" s="5">
         <f>AVERAGE([1]Sheet1!E7:E18)</f>
-        <v>1.1285599881316109E-2</v>
+        <v>5.3963193620932366E-3</v>
       </c>
       <c r="F19" s="5">
         <f>AVERAGE([1]Sheet1!F7:F18)</f>
-        <v>5.3963193620932366E-3</v>
+        <v>1.1285599881316109E-2</v>
       </c>
       <c r="G19" s="5">
         <f>AVERAGE([1]Sheet1!G7:G18)</f>
@@ -5079,11 +5095,11 @@
       </c>
       <c r="E20" s="5">
         <f>AVERAGE([1]Sheet1!E8:E19)</f>
-        <v>1.2694860797957371E-2</v>
+        <v>3.8853397489871078E-3</v>
       </c>
       <c r="F20" s="5">
         <f>AVERAGE([1]Sheet1!F8:F19)</f>
-        <v>3.8853397489871078E-3</v>
+        <v>1.2694860797957371E-2</v>
       </c>
       <c r="G20" s="5">
         <f>AVERAGE([1]Sheet1!G8:G19)</f>
@@ -5116,11 +5132,11 @@
       </c>
       <c r="E21" s="5">
         <f>AVERAGE([1]Sheet1!E9:E20)</f>
-        <v>1.7008385039285038E-2</v>
+        <v>9.7402336137428422E-3</v>
       </c>
       <c r="F21" s="5">
         <f>AVERAGE([1]Sheet1!F9:F20)</f>
-        <v>9.7402336137428422E-3</v>
+        <v>1.7008385039285038E-2</v>
       </c>
       <c r="G21" s="5">
         <f>AVERAGE([1]Sheet1!G9:G20)</f>
@@ -5153,11 +5169,11 @@
       </c>
       <c r="E22" s="5">
         <f>AVERAGE([1]Sheet1!E10:E21)</f>
-        <v>1.2965737070910354E-2</v>
+        <v>8.6144537391479141E-3</v>
       </c>
       <c r="F22" s="5">
         <f>AVERAGE([1]Sheet1!F10:F21)</f>
-        <v>8.6144537391479141E-3</v>
+        <v>1.2965737070910354E-2</v>
       </c>
       <c r="G22" s="5">
         <f>AVERAGE([1]Sheet1!G10:G21)</f>
@@ -5190,11 +5206,11 @@
       </c>
       <c r="E23" s="5">
         <f>AVERAGE([1]Sheet1!E11:E22)</f>
-        <v>1.4151798154438601E-2</v>
+        <v>8.4132065427853057E-3</v>
       </c>
       <c r="F23" s="5">
         <f>AVERAGE([1]Sheet1!F11:F22)</f>
-        <v>8.4132065427853057E-3</v>
+        <v>1.4151798154438601E-2</v>
       </c>
       <c r="G23" s="5">
         <f>AVERAGE([1]Sheet1!G11:G22)</f>
@@ -5227,11 +5243,11 @@
       </c>
       <c r="E24" s="5">
         <f>AVERAGE([1]Sheet1!E12:E23)</f>
-        <v>8.938087629730725E-3</v>
+        <v>5.7669574960026804E-3</v>
       </c>
       <c r="F24" s="5">
         <f>AVERAGE([1]Sheet1!F12:F23)</f>
-        <v>5.7669574960026804E-3</v>
+        <v>8.938087629730725E-3</v>
       </c>
       <c r="G24" s="5">
         <f>AVERAGE([1]Sheet1!G12:G23)</f>
@@ -5264,11 +5280,11 @@
       </c>
       <c r="E25" s="5">
         <f>AVERAGE([1]Sheet1!E13:E24)</f>
-        <v>5.7106105557759588E-3</v>
+        <v>5.4828893399350787E-3</v>
       </c>
       <c r="F25" s="5">
         <f>AVERAGE([1]Sheet1!F13:F24)</f>
-        <v>5.4828893399350787E-3</v>
+        <v>5.7106105557759588E-3</v>
       </c>
       <c r="G25" s="5">
         <f>AVERAGE([1]Sheet1!G13:G24)</f>
@@ -5301,11 +5317,11 @@
       </c>
       <c r="E26" s="5">
         <f>AVERAGE([1]Sheet1!E14:E25)</f>
-        <v>4.3637970341479666E-3</v>
+        <v>2.6986789766376904E-3</v>
       </c>
       <c r="F26" s="5">
         <f>AVERAGE([1]Sheet1!F14:F25)</f>
-        <v>2.6986789766376904E-3</v>
+        <v>4.3637970341479666E-3</v>
       </c>
       <c r="G26" s="5">
         <f>AVERAGE([1]Sheet1!G14:G25)</f>
@@ -5338,11 +5354,11 @@
       </c>
       <c r="E27" s="5">
         <f>AVERAGE([1]Sheet1!E15:E26)</f>
-        <v>1.2252407093038931E-2</v>
+        <v>6.9284528807757413E-3</v>
       </c>
       <c r="F27" s="5">
         <f>AVERAGE([1]Sheet1!F15:F26)</f>
-        <v>6.9284528807757413E-3</v>
+        <v>1.2252407093038931E-2</v>
       </c>
       <c r="G27" s="5">
         <f>AVERAGE([1]Sheet1!G15:G26)</f>
@@ -5375,11 +5391,11 @@
       </c>
       <c r="E28" s="5">
         <f>AVERAGE([1]Sheet1!E16:E27)</f>
-        <v>1.0250458232560142E-2</v>
+        <v>5.3909289670293443E-3</v>
       </c>
       <c r="F28" s="5">
         <f>AVERAGE([1]Sheet1!F16:F27)</f>
-        <v>5.3909289670293443E-3</v>
+        <v>1.0250458232560142E-2</v>
       </c>
       <c r="G28" s="5">
         <f>AVERAGE([1]Sheet1!G16:G27)</f>
@@ -5412,11 +5428,11 @@
       </c>
       <c r="E29" s="5">
         <f>AVERAGE([1]Sheet1!E17:E28)</f>
-        <v>1.3639534913996993E-2</v>
+        <v>7.9061168312525437E-3</v>
       </c>
       <c r="F29" s="5">
         <f>AVERAGE([1]Sheet1!F17:F28)</f>
-        <v>7.9061168312525437E-3</v>
+        <v>1.3639534913996993E-2</v>
       </c>
       <c r="G29" s="5">
         <f>AVERAGE([1]Sheet1!G17:G28)</f>
@@ -5449,11 +5465,11 @@
       </c>
       <c r="E30" s="5">
         <f>AVERAGE([1]Sheet1!E18:E29)</f>
-        <v>1.5736947883625379E-2</v>
+        <v>1.0597409980138068E-2</v>
       </c>
       <c r="F30" s="5">
         <f>AVERAGE([1]Sheet1!F18:F29)</f>
-        <v>1.0597409980138068E-2</v>
+        <v>1.5736947883625379E-2</v>
       </c>
       <c r="G30" s="5">
         <f>AVERAGE([1]Sheet1!G18:G29)</f>
@@ -5486,11 +5502,11 @@
       </c>
       <c r="E31" s="5">
         <f>AVERAGE([1]Sheet1!E19:E30)</f>
-        <v>1.1969641017492616E-2</v>
+        <v>5.5249994646856928E-3</v>
       </c>
       <c r="F31" s="5">
         <f>AVERAGE([1]Sheet1!F19:F30)</f>
-        <v>5.5249994646856928E-3</v>
+        <v>1.1969641017492616E-2</v>
       </c>
       <c r="G31" s="5">
         <f>AVERAGE([1]Sheet1!G19:G30)</f>
@@ -5523,11 +5539,11 @@
       </c>
       <c r="E32" s="5">
         <f>AVERAGE([1]Sheet1!E20:E31)</f>
-        <v>1.2115682240829916E-2</v>
+        <v>5.5441065757836387E-3</v>
       </c>
       <c r="F32" s="5">
         <f>AVERAGE([1]Sheet1!F20:F31)</f>
-        <v>5.5441065757836387E-3</v>
+        <v>1.2115682240829916E-2</v>
       </c>
       <c r="G32" s="5">
         <f>AVERAGE([1]Sheet1!G20:G31)</f>
@@ -5560,11 +5576,11 @@
       </c>
       <c r="E33" s="5">
         <f>AVERAGE([1]Sheet1!E21:E32)</f>
-        <v>1.1730750908467558E-2</v>
+        <v>2.9705740468986054E-3</v>
       </c>
       <c r="F33" s="5">
         <f>AVERAGE([1]Sheet1!F21:F32)</f>
-        <v>2.9705740468986054E-3</v>
+        <v>1.1730750908467558E-2</v>
       </c>
       <c r="G33" s="5">
         <f>AVERAGE([1]Sheet1!G21:G32)</f>
@@ -5597,11 +5613,11 @@
       </c>
       <c r="E34" s="5">
         <f>AVERAGE([1]Sheet1!E22:E33)</f>
-        <v>1.3671225990335567E-2</v>
+        <v>5.6785980876771633E-3</v>
       </c>
       <c r="F34" s="5">
         <f>AVERAGE([1]Sheet1!F22:F33)</f>
-        <v>5.6785980876771633E-3</v>
+        <v>1.3671225990335567E-2</v>
       </c>
       <c r="G34" s="5">
         <f>AVERAGE([1]Sheet1!G22:G33)</f>
@@ -5634,11 +5650,11 @@
       </c>
       <c r="E35" s="5">
         <f>AVERAGE([1]Sheet1!E23:E34)</f>
-        <v>1.1458298918681026E-2</v>
+        <v>7.1467092914215867E-3</v>
       </c>
       <c r="F35" s="5">
         <f>AVERAGE([1]Sheet1!F23:F34)</f>
-        <v>7.1467092914215867E-3</v>
+        <v>1.1458298918681026E-2</v>
       </c>
       <c r="G35" s="5">
         <f>AVERAGE([1]Sheet1!G23:G34)</f>
@@ -5671,11 +5687,11 @@
       </c>
       <c r="E36" s="5">
         <f>AVERAGE([1]Sheet1!E24:E35)</f>
-        <v>2.0798560565301265E-2</v>
+        <v>1.1250773427935887E-2</v>
       </c>
       <c r="F36" s="5">
         <f>AVERAGE([1]Sheet1!F24:F35)</f>
-        <v>1.1250773427935887E-2</v>
+        <v>2.0798560565301265E-2</v>
       </c>
       <c r="G36" s="5">
         <f>AVERAGE([1]Sheet1!G24:G35)</f>
@@ -5708,11 +5724,11 @@
       </c>
       <c r="E37" s="5">
         <f>AVERAGE([1]Sheet1!E25:E36)</f>
-        <v>2.0501131954759531E-2</v>
+        <v>9.6908141363164814E-3</v>
       </c>
       <c r="F37" s="5">
         <f>AVERAGE([1]Sheet1!F25:F36)</f>
-        <v>9.6908141363164814E-3</v>
+        <v>2.0501131954759531E-2</v>
       </c>
       <c r="G37" s="5">
         <f>AVERAGE([1]Sheet1!G25:G36)</f>
@@ -5745,11 +5761,11 @@
       </c>
       <c r="E38" s="5">
         <f>AVERAGE([1]Sheet1!E26:E37)</f>
-        <v>2.5253571086212744E-2</v>
+        <v>1.0821493109656397E-2</v>
       </c>
       <c r="F38" s="5">
         <f>AVERAGE([1]Sheet1!F26:F37)</f>
-        <v>1.0821493109656397E-2</v>
+        <v>2.5253571086212744E-2</v>
       </c>
       <c r="G38" s="5">
         <f>AVERAGE([1]Sheet1!G26:G37)</f>
@@ -5782,11 +5798,11 @@
       </c>
       <c r="E39" s="5">
         <f>AVERAGE([1]Sheet1!E27:E38)</f>
-        <v>2.0933962594963714E-2</v>
+        <v>9.8708469583732028E-3</v>
       </c>
       <c r="F39" s="5">
         <f>AVERAGE([1]Sheet1!F27:F38)</f>
-        <v>9.8708469583732028E-3</v>
+        <v>2.0933962594963714E-2</v>
       </c>
       <c r="G39" s="5">
         <f>AVERAGE([1]Sheet1!G27:G38)</f>
@@ -5819,11 +5835,11 @@
       </c>
       <c r="E40" s="5">
         <f>AVERAGE([1]Sheet1!E28:E39)</f>
-        <v>1.8173896171225255E-2</v>
+        <v>8.0125767941945578E-3</v>
       </c>
       <c r="F40" s="5">
         <f>AVERAGE([1]Sheet1!F28:F39)</f>
-        <v>8.0125767941945578E-3</v>
+        <v>1.8173896171225255E-2</v>
       </c>
       <c r="G40" s="5">
         <f>AVERAGE([1]Sheet1!G28:G39)</f>
@@ -5856,11 +5872,11 @@
       </c>
       <c r="E41" s="5">
         <f>AVERAGE([1]Sheet1!E29:E40)</f>
-        <v>1.9401379129602773E-2</v>
+        <v>7.9221890841781328E-3</v>
       </c>
       <c r="F41" s="5">
         <f>AVERAGE([1]Sheet1!F29:F40)</f>
-        <v>7.9221890841781328E-3</v>
+        <v>1.9401379129602773E-2</v>
       </c>
       <c r="G41" s="5">
         <f>AVERAGE([1]Sheet1!G29:G40)</f>
@@ -5893,11 +5909,11 @@
       </c>
       <c r="E42" s="5">
         <f>AVERAGE([1]Sheet1!E30:E41)</f>
-        <v>1.7066922733469603E-2</v>
+        <v>1.0514168675319605E-2</v>
       </c>
       <c r="F42" s="5">
         <f>AVERAGE([1]Sheet1!F30:F41)</f>
-        <v>1.0514168675319605E-2</v>
+        <v>1.7066922733469603E-2</v>
       </c>
       <c r="G42" s="5">
         <f>AVERAGE([1]Sheet1!G30:G41)</f>
@@ -5930,11 +5946,11 @@
       </c>
       <c r="E43" s="5">
         <f>AVERAGE([1]Sheet1!E31:E42)</f>
-        <v>2.237917181326908E-2</v>
+        <v>1.5803012832851758E-2</v>
       </c>
       <c r="F43" s="5">
         <f>AVERAGE([1]Sheet1!F31:F42)</f>
-        <v>1.5803012832851758E-2</v>
+        <v>2.237917181326908E-2</v>
       </c>
       <c r="G43" s="5">
         <f>AVERAGE([1]Sheet1!G31:G42)</f>
@@ -5967,11 +5983,11 @@
       </c>
       <c r="E44" s="5">
         <f>AVERAGE([1]Sheet1!E32:E43)</f>
-        <v>2.4822957147435213E-2</v>
+        <v>1.4311103018989376E-2</v>
       </c>
       <c r="F44" s="5">
         <f>AVERAGE([1]Sheet1!F32:F43)</f>
-        <v>1.4311103018989376E-2</v>
+        <v>2.4822957147435213E-2</v>
       </c>
       <c r="G44" s="5">
         <f>AVERAGE([1]Sheet1!G32:G43)</f>
@@ -6004,11 +6020,11 @@
       </c>
       <c r="E45" s="5">
         <f>AVERAGE([1]Sheet1!E33:E44)</f>
-        <v>2.6623163093046593E-2</v>
+        <v>1.1222126324659742E-2</v>
       </c>
       <c r="F45" s="5">
         <f>AVERAGE([1]Sheet1!F33:F44)</f>
-        <v>1.1222126324659742E-2</v>
+        <v>2.6623163093046593E-2</v>
       </c>
       <c r="G45" s="5">
         <f>AVERAGE([1]Sheet1!G33:G44)</f>
@@ -6041,11 +6057,11 @@
       </c>
       <c r="E46" s="5">
         <f>AVERAGE([1]Sheet1!E34:E45)</f>
-        <v>2.7428850584914621E-2</v>
+        <v>1.0521237140850424E-2</v>
       </c>
       <c r="F46" s="5">
         <f>AVERAGE([1]Sheet1!F34:F45)</f>
-        <v>1.0521237140850424E-2</v>
+        <v>2.7428850584914621E-2</v>
       </c>
       <c r="G46" s="5">
         <f>AVERAGE([1]Sheet1!G34:G45)</f>
@@ -6078,11 +6094,11 @@
       </c>
       <c r="E47" s="5">
         <f>AVERAGE([1]Sheet1!E35:E46)</f>
-        <v>3.7680078580398242E-2</v>
+        <v>1.1456881043384902E-2</v>
       </c>
       <c r="F47" s="5">
         <f>AVERAGE([1]Sheet1!F35:F46)</f>
-        <v>1.1456881043384902E-2</v>
+        <v>3.7680078580398242E-2</v>
       </c>
       <c r="G47" s="5">
         <f>AVERAGE([1]Sheet1!G35:G46)</f>
@@ -6115,11 +6131,11 @@
       </c>
       <c r="E48" s="5">
         <f>AVERAGE([1]Sheet1!E36:E47)</f>
-        <v>4.6894692982575072E-2</v>
+        <v>1.0066406579164541E-2</v>
       </c>
       <c r="F48" s="5">
         <f>AVERAGE([1]Sheet1!F36:F47)</f>
-        <v>1.0066406579164541E-2</v>
+        <v>4.6894692982575072E-2</v>
       </c>
       <c r="G48" s="5">
         <f>AVERAGE([1]Sheet1!G36:G47)</f>
@@ -6152,11 +6168,11 @@
       </c>
       <c r="E49" s="5">
         <f>AVERAGE([1]Sheet1!E37:E48)</f>
-        <v>3.6801490819312672E-2</v>
+        <v>5.0239037960182345E-3</v>
       </c>
       <c r="F49" s="5">
         <f>AVERAGE([1]Sheet1!F37:F48)</f>
-        <v>5.0239037960182345E-3</v>
+        <v>3.6801490819312672E-2</v>
       </c>
       <c r="G49" s="5">
         <f>AVERAGE([1]Sheet1!G37:G48)</f>
@@ -6189,11 +6205,11 @@
       </c>
       <c r="E50" s="5">
         <f>AVERAGE([1]Sheet1!E38:E49)</f>
-        <v>2.9970223015485676E-2</v>
+        <v>3.2535504335228257E-3</v>
       </c>
       <c r="F50" s="5">
         <f>AVERAGE([1]Sheet1!F38:F49)</f>
-        <v>3.2535504335228257E-3</v>
+        <v>2.9970223015485676E-2</v>
       </c>
       <c r="G50" s="5">
         <f>AVERAGE([1]Sheet1!G38:G49)</f>
@@ -6226,11 +6242,11 @@
       </c>
       <c r="E51" s="5">
         <f>AVERAGE([1]Sheet1!E39:E50)</f>
-        <v>1.6324421433794301E-2</v>
+        <v>-3.0149962095620732E-3</v>
       </c>
       <c r="F51" s="5">
         <f>AVERAGE([1]Sheet1!F39:F50)</f>
-        <v>-3.0149962095620732E-3</v>
+        <v>1.6324421433794301E-2</v>
       </c>
       <c r="G51" s="5">
         <f>AVERAGE([1]Sheet1!G39:G50)</f>
@@ -6263,11 +6279,11 @@
       </c>
       <c r="E52" s="5">
         <f>AVERAGE([1]Sheet1!E40:E51)</f>
-        <v>2.1321842958290062E-2</v>
+        <v>-4.0912476097217489E-3</v>
       </c>
       <c r="F52" s="5">
         <f>AVERAGE([1]Sheet1!F40:F51)</f>
-        <v>-4.0912476097217489E-3</v>
+        <v>2.1321842958290062E-2</v>
       </c>
       <c r="G52" s="5">
         <f>AVERAGE([1]Sheet1!G40:G51)</f>
@@ -6300,11 +6316,11 @@
       </c>
       <c r="E53" s="5">
         <f>AVERAGE([1]Sheet1!E41:E52)</f>
-        <v>1.5610917507302041E-2</v>
+        <v>-5.4195424302468384E-3</v>
       </c>
       <c r="F53" s="5">
         <f>AVERAGE([1]Sheet1!F41:F52)</f>
-        <v>-5.4195424302468384E-3</v>
+        <v>1.5610917507302041E-2</v>
       </c>
       <c r="G53" s="5">
         <f>AVERAGE([1]Sheet1!G41:G52)</f>
@@ -6337,11 +6353,11 @@
       </c>
       <c r="E54" s="5">
         <f>AVERAGE([1]Sheet1!E42:E53)</f>
-        <v>2.402969832643953E-2</v>
+        <v>-5.0648756215837731E-3</v>
       </c>
       <c r="F54" s="5">
         <f>AVERAGE([1]Sheet1!F42:F53)</f>
-        <v>-5.0648756215837731E-3</v>
+        <v>2.402969832643953E-2</v>
       </c>
       <c r="G54" s="5">
         <f>AVERAGE([1]Sheet1!G42:G53)</f>
@@ -6374,11 +6390,11 @@
       </c>
       <c r="E55" s="5">
         <f>AVERAGE([1]Sheet1!E43:E54)</f>
-        <v>1.8781176219478325E-2</v>
+        <v>-6.8877985675296393E-3</v>
       </c>
       <c r="F55" s="5">
         <f>AVERAGE([1]Sheet1!F43:F54)</f>
-        <v>-6.8877985675296393E-3</v>
+        <v>1.8781176219478325E-2</v>
       </c>
       <c r="G55" s="5">
         <f>AVERAGE([1]Sheet1!G43:G54)</f>
@@ -6411,11 +6427,11 @@
       </c>
       <c r="E56" s="5">
         <f>AVERAGE([1]Sheet1!E44:E55)</f>
-        <v>5.9263403984760521E-3</v>
+        <v>-1.2566637893243972E-2</v>
       </c>
       <c r="F56" s="5">
         <f>AVERAGE([1]Sheet1!F44:F55)</f>
-        <v>-1.2566637893243972E-2</v>
+        <v>5.9263403984760521E-3</v>
       </c>
       <c r="G56" s="5">
         <f>AVERAGE([1]Sheet1!G44:G55)</f>
@@ -6448,11 +6464,11 @@
       </c>
       <c r="E57" s="5">
         <f>AVERAGE([1]Sheet1!E45:E56)</f>
-        <v>2.8931405526777761E-3</v>
+        <v>-1.0723093553727222E-2</v>
       </c>
       <c r="F57" s="5">
         <f>AVERAGE([1]Sheet1!F45:F56)</f>
-        <v>-1.0723093553727222E-2</v>
+        <v>2.8931405526777761E-3</v>
       </c>
       <c r="G57" s="5">
         <f>AVERAGE([1]Sheet1!G45:G56)</f>
@@ -6485,11 +6501,11 @@
       </c>
       <c r="E58" s="5">
         <f>AVERAGE([1]Sheet1!E46:E57)</f>
-        <v>-5.3656065130836478E-3</v>
+        <v>-1.0779184310407523E-2</v>
       </c>
       <c r="F58" s="5">
         <f>AVERAGE([1]Sheet1!F46:F57)</f>
-        <v>-1.0779184310407523E-2</v>
+        <v>-5.3656065130836478E-3</v>
       </c>
       <c r="G58" s="5">
         <f>AVERAGE([1]Sheet1!G46:G57)</f>
@@ -6522,11 +6538,11 @@
       </c>
       <c r="E59" s="5">
         <f>AVERAGE([1]Sheet1!E47:E58)</f>
-        <v>-2.9060319427120899E-2</v>
+        <v>-2.1327972192694059E-2</v>
       </c>
       <c r="F59" s="5">
         <f>AVERAGE([1]Sheet1!F47:F58)</f>
-        <v>-2.1327972192694059E-2</v>
+        <v>-2.9060319427120899E-2</v>
       </c>
       <c r="G59" s="5">
         <f>AVERAGE([1]Sheet1!G47:G58)</f>
@@ -6559,11 +6575,11 @@
       </c>
       <c r="E60" s="5">
         <f>AVERAGE([1]Sheet1!E48:E59)</f>
-        <v>-6.0708034932264655E-2</v>
+        <v>-3.6681877982230389E-2</v>
       </c>
       <c r="F60" s="5">
         <f>AVERAGE([1]Sheet1!F48:F59)</f>
-        <v>-3.6681877982230389E-2</v>
+        <v>-6.0708034932264655E-2</v>
       </c>
       <c r="G60" s="5">
         <f>AVERAGE([1]Sheet1!G48:G59)</f>
@@ -6596,11 +6612,11 @@
       </c>
       <c r="E61" s="5">
         <f>AVERAGE([1]Sheet1!E49:E60)</f>
-        <v>-5.3987572289374154E-2</v>
+        <v>-3.9249012018640651E-2</v>
       </c>
       <c r="F61" s="5">
         <f>AVERAGE([1]Sheet1!F49:F60)</f>
-        <v>-3.9249012018640651E-2</v>
+        <v>-5.3987572289374154E-2</v>
       </c>
       <c r="G61" s="5">
         <f>AVERAGE([1]Sheet1!G49:G60)</f>
@@ -6633,11 +6649,11 @@
       </c>
       <c r="E62" s="5">
         <f>AVERAGE([1]Sheet1!E50:E61)</f>
-        <v>-4.8574464761947433E-2</v>
+        <v>-3.787817414207887E-2</v>
       </c>
       <c r="F62" s="5">
         <f>AVERAGE([1]Sheet1!F50:F61)</f>
-        <v>-3.787817414207887E-2</v>
+        <v>-4.8574464761947433E-2</v>
       </c>
       <c r="G62" s="5">
         <f>AVERAGE([1]Sheet1!G50:G61)</f>
@@ -6670,11 +6686,11 @@
       </c>
       <c r="E63" s="5">
         <f>AVERAGE([1]Sheet1!E51:E62)</f>
-        <v>-4.1945098586040008E-2</v>
+        <v>-3.991933027263856E-2</v>
       </c>
       <c r="F63" s="5">
         <f>AVERAGE([1]Sheet1!F51:F62)</f>
-        <v>-3.991933027263856E-2</v>
+        <v>-4.1945098586040008E-2</v>
       </c>
       <c r="G63" s="5">
         <f>AVERAGE([1]Sheet1!G51:G62)</f>
@@ -6707,11 +6723,11 @@
       </c>
       <c r="E64" s="5">
         <f>AVERAGE([1]Sheet1!E52:E63)</f>
-        <v>-4.7985699842020661E-2</v>
+        <v>-4.6183502171362127E-2</v>
       </c>
       <c r="F64" s="5">
         <f>AVERAGE([1]Sheet1!F52:F63)</f>
-        <v>-4.6183502171362127E-2</v>
+        <v>-4.7985699842020661E-2</v>
       </c>
       <c r="G64" s="5">
         <f>AVERAGE([1]Sheet1!G52:G63)</f>
@@ -6744,11 +6760,11 @@
       </c>
       <c r="E65" s="5">
         <f>AVERAGE([1]Sheet1!E53:E64)</f>
-        <v>-3.7936010180984074E-2</v>
+        <v>-3.8569827892516707E-2</v>
       </c>
       <c r="F65" s="5">
         <f>AVERAGE([1]Sheet1!F53:F64)</f>
-        <v>-3.8569827892516707E-2</v>
+        <v>-3.7936010180984074E-2</v>
       </c>
       <c r="G65" s="5">
         <f>AVERAGE([1]Sheet1!G53:G64)</f>
@@ -6781,11 +6797,11 @@
       </c>
       <c r="E66" s="5">
         <f>AVERAGE([1]Sheet1!E54:E65)</f>
-        <v>-3.6596269801256326E-2</v>
+        <v>-3.4704962000668027E-2</v>
       </c>
       <c r="F66" s="5">
         <f>AVERAGE([1]Sheet1!F54:F65)</f>
-        <v>-3.4704962000668027E-2</v>
+        <v>-3.6596269801256326E-2</v>
       </c>
       <c r="G66" s="5">
         <f>AVERAGE([1]Sheet1!G54:G65)</f>
@@ -6818,11 +6834,11 @@
       </c>
       <c r="E67" s="5">
         <f>AVERAGE([1]Sheet1!E55:E66)</f>
-        <v>-1.8413556131621291E-2</v>
+        <v>-3.1171022550031773E-2</v>
       </c>
       <c r="F67" s="5">
         <f>AVERAGE([1]Sheet1!F55:F66)</f>
-        <v>-3.1171022550031773E-2</v>
+        <v>-1.8413556131621291E-2</v>
       </c>
       <c r="G67" s="5">
         <f>AVERAGE([1]Sheet1!G55:G66)</f>
@@ -6855,11 +6871,11 @@
       </c>
       <c r="E68" s="5">
         <f>AVERAGE([1]Sheet1!E56:E67)</f>
-        <v>-9.2029749703889836E-3</v>
+        <v>-2.3991171143652068E-2</v>
       </c>
       <c r="F68" s="5">
         <f>AVERAGE([1]Sheet1!F56:F67)</f>
-        <v>-2.3991171143652068E-2</v>
+        <v>-9.2029749703889836E-3</v>
       </c>
       <c r="G68" s="5">
         <f>AVERAGE([1]Sheet1!G56:G67)</f>
@@ -6892,11 +6908,11 @@
       </c>
       <c r="E69" s="5">
         <f>AVERAGE([1]Sheet1!E57:E68)</f>
-        <v>-1.6240803144994831E-3</v>
+        <v>-1.6991076814419609E-2</v>
       </c>
       <c r="F69" s="5">
         <f>AVERAGE([1]Sheet1!F57:F68)</f>
-        <v>-1.6991076814419609E-2</v>
+        <v>-1.6240803144994831E-3</v>
       </c>
       <c r="G69" s="5">
         <f>AVERAGE([1]Sheet1!G57:G68)</f>
@@ -6929,11 +6945,11 @@
       </c>
       <c r="E70" s="5">
         <f>AVERAGE([1]Sheet1!E58:E69)</f>
-        <v>3.2262467129517562E-4</v>
+        <v>-1.5210270970445481E-2</v>
       </c>
       <c r="F70" s="5">
         <f>AVERAGE([1]Sheet1!F58:F69)</f>
-        <v>-1.5210270970445481E-2</v>
+        <v>3.2262467129517562E-4</v>
       </c>
       <c r="G70" s="5">
         <f>AVERAGE([1]Sheet1!G58:G69)</f>
@@ -6966,11 +6982,11 @@
       </c>
       <c r="E71" s="5">
         <f>AVERAGE([1]Sheet1!E59:E70)</f>
-        <v>1.8244807477668674E-2</v>
+        <v>-4.6673678790454141E-3</v>
       </c>
       <c r="F71" s="5">
         <f>AVERAGE([1]Sheet1!F59:F70)</f>
-        <v>-4.6673678790454141E-3</v>
+        <v>1.8244807477668674E-2</v>
       </c>
       <c r="G71" s="5">
         <f>AVERAGE([1]Sheet1!G59:G70)</f>
@@ -7003,11 +7019,11 @@
       </c>
       <c r="E72" s="5">
         <f>AVERAGE([1]Sheet1!E60:E71)</f>
-        <v>4.0138476659186607E-2</v>
+        <v>7.804511171058578E-3</v>
       </c>
       <c r="F72" s="5">
         <f>AVERAGE([1]Sheet1!F60:F71)</f>
-        <v>7.804511171058578E-3</v>
+        <v>4.0138476659186607E-2</v>
       </c>
       <c r="G72" s="5">
         <f>AVERAGE([1]Sheet1!G60:G71)</f>
@@ -7040,11 +7056,11 @@
       </c>
       <c r="E73" s="5">
         <f>AVERAGE([1]Sheet1!E61:E72)</f>
-        <v>4.088121760748098E-2</v>
+        <v>1.882226360509448E-2</v>
       </c>
       <c r="F73" s="5">
         <f>AVERAGE([1]Sheet1!F61:F72)</f>
-        <v>1.882226360509448E-2</v>
+        <v>4.088121760748098E-2</v>
       </c>
       <c r="G73" s="5">
         <f>AVERAGE([1]Sheet1!G61:G72)</f>
@@ -7077,11 +7093,11 @@
       </c>
       <c r="E74" s="5">
         <f>AVERAGE([1]Sheet1!E62:E73)</f>
-        <v>3.8080397943645254E-2</v>
+        <v>1.9651349612280305E-2</v>
       </c>
       <c r="F74" s="5">
         <f>AVERAGE([1]Sheet1!F62:F73)</f>
-        <v>1.9651349612280305E-2</v>
+        <v>3.8080397943645254E-2</v>
       </c>
       <c r="G74" s="5">
         <f>AVERAGE([1]Sheet1!G62:G73)</f>
@@ -7114,11 +7130,11 @@
       </c>
       <c r="E75" s="5">
         <f>AVERAGE([1]Sheet1!E63:E74)</f>
-        <v>3.7836002371588275E-2</v>
+        <v>2.3708273451104406E-2</v>
       </c>
       <c r="F75" s="5">
         <f>AVERAGE([1]Sheet1!F63:F74)</f>
-        <v>2.3708273451104406E-2</v>
+        <v>3.7836002371588275E-2</v>
       </c>
       <c r="G75" s="5">
         <f>AVERAGE([1]Sheet1!G63:G74)</f>
@@ -7151,11 +7167,11 @@
       </c>
       <c r="E76" s="5">
         <f>AVERAGE([1]Sheet1!E64:E75)</f>
-        <v>4.2780267715351213E-2</v>
+        <v>3.5245349979363773E-2</v>
       </c>
       <c r="F76" s="5">
         <f>AVERAGE([1]Sheet1!F64:F75)</f>
-        <v>3.5245349979363773E-2</v>
+        <v>4.2780267715351213E-2</v>
       </c>
       <c r="G76" s="5">
         <f>AVERAGE([1]Sheet1!G64:G75)</f>
@@ -7188,11 +7204,11 @@
       </c>
       <c r="E77" s="5">
         <f>AVERAGE([1]Sheet1!E65:E76)</f>
-        <v>4.0357977465325712E-2</v>
+        <v>3.3028004917926623E-2</v>
       </c>
       <c r="F77" s="5">
         <f>AVERAGE([1]Sheet1!F65:F76)</f>
-        <v>3.3028004917926623E-2</v>
+        <v>4.0357977465325712E-2</v>
       </c>
       <c r="G77" s="5">
         <f>AVERAGE([1]Sheet1!G65:G76)</f>
@@ -7225,11 +7241,11 @@
       </c>
       <c r="E78" s="5">
         <f>AVERAGE([1]Sheet1!E66:E77)</f>
-        <v>2.7906172890977143E-2</v>
+        <v>2.6430859224596214E-2</v>
       </c>
       <c r="F78" s="5">
         <f>AVERAGE([1]Sheet1!F66:F77)</f>
-        <v>2.6430859224596214E-2</v>
+        <v>2.7906172890977143E-2</v>
       </c>
       <c r="G78" s="5">
         <f>AVERAGE([1]Sheet1!G66:G77)</f>
@@ -7262,11 +7278,11 @@
       </c>
       <c r="E79" s="5">
         <f>AVERAGE([1]Sheet1!E67:E78)</f>
-        <v>8.3745468308906324E-3</v>
+        <v>1.5176080652902329E-2</v>
       </c>
       <c r="F79" s="5">
         <f>AVERAGE([1]Sheet1!F67:F78)</f>
-        <v>1.5176080652902329E-2</v>
+        <v>8.3745468308906324E-3</v>
       </c>
       <c r="G79" s="5">
         <f>AVERAGE([1]Sheet1!G67:G78)</f>
@@ -7299,11 +7315,11 @@
       </c>
       <c r="E80" s="5">
         <f>AVERAGE([1]Sheet1!E68:E79)</f>
-        <v>8.955726258627025E-3</v>
+        <v>1.0669562991518874E-2</v>
       </c>
       <c r="F80" s="5">
         <f>AVERAGE([1]Sheet1!F68:F79)</f>
-        <v>1.0669562991518874E-2</v>
+        <v>8.955726258627025E-3</v>
       </c>
       <c r="G80" s="5">
         <f>AVERAGE([1]Sheet1!G68:G79)</f>
@@ -7336,11 +7352,11 @@
       </c>
       <c r="E81" s="5">
         <f>AVERAGE([1]Sheet1!E69:E80)</f>
-        <v>2.734279161195926E-3</v>
+        <v>1.022256930862485E-2</v>
       </c>
       <c r="F81" s="5">
         <f>AVERAGE([1]Sheet1!F69:F80)</f>
-        <v>1.022256930862485E-2</v>
+        <v>2.734279161195926E-3</v>
       </c>
       <c r="G81" s="5">
         <f>AVERAGE([1]Sheet1!G69:G80)</f>
@@ -7373,11 +7389,11 @@
       </c>
       <c r="E82" s="5">
         <f>AVERAGE([1]Sheet1!E70:E81)</f>
-        <v>4.2189216598236918E-3</v>
+        <v>3.4717911234810584E-3</v>
       </c>
       <c r="F82" s="5">
         <f>AVERAGE([1]Sheet1!F70:F81)</f>
-        <v>3.4717911234810584E-3</v>
+        <v>4.2189216598236918E-3</v>
       </c>
       <c r="G82" s="5">
         <f>AVERAGE([1]Sheet1!G70:G81)</f>
@@ -7410,11 +7426,11 @@
       </c>
       <c r="E83" s="5">
         <f>AVERAGE([1]Sheet1!E71:E82)</f>
-        <v>6.4098205077608508E-3</v>
+        <v>7.7907678078391329E-3</v>
       </c>
       <c r="F83" s="5">
         <f>AVERAGE([1]Sheet1!F71:F82)</f>
-        <v>7.7907678078391329E-3</v>
+        <v>6.4098205077608508E-3</v>
       </c>
       <c r="G83" s="5">
         <f>AVERAGE([1]Sheet1!G71:G82)</f>
@@ -7447,11 +7463,11 @@
       </c>
       <c r="E84" s="5">
         <f>AVERAGE([1]Sheet1!E72:E83)</f>
-        <v>5.9891379646522689E-3</v>
+        <v>1.2508928388041065E-2</v>
       </c>
       <c r="F84" s="5">
         <f>AVERAGE([1]Sheet1!F72:F83)</f>
-        <v>1.2508928388041065E-2</v>
+        <v>5.9891379646522689E-3</v>
       </c>
       <c r="G84" s="5">
         <f>AVERAGE([1]Sheet1!G72:G83)</f>
@@ -7484,11 +7500,11 @@
       </c>
       <c r="E85" s="5">
         <f>AVERAGE([1]Sheet1!E73:E84)</f>
-        <v>5.4075174419847506E-3</v>
+        <v>7.5377384106698961E-3</v>
       </c>
       <c r="F85" s="5">
         <f>AVERAGE([1]Sheet1!F73:F84)</f>
-        <v>7.5377384106698961E-3</v>
+        <v>5.4075174419847506E-3</v>
       </c>
       <c r="G85" s="5">
         <f>AVERAGE([1]Sheet1!G73:G84)</f>
@@ -7521,11 +7537,11 @@
       </c>
       <c r="E86" s="5">
         <f>AVERAGE([1]Sheet1!E74:E85)</f>
-        <v>5.3122135980877517E-3</v>
+        <v>1.1498527932507519E-2</v>
       </c>
       <c r="F86" s="5">
         <f>AVERAGE([1]Sheet1!F74:F85)</f>
-        <v>1.1498527932507519E-2</v>
+        <v>5.3122135980877517E-3</v>
       </c>
       <c r="G86" s="5">
         <f>AVERAGE([1]Sheet1!G74:G85)</f>
@@ -7558,11 +7574,11 @@
       </c>
       <c r="E87" s="5">
         <f>AVERAGE([1]Sheet1!E75:E86)</f>
-        <v>1.3471643012731661E-2</v>
+        <v>1.6466848978422179E-2</v>
       </c>
       <c r="F87" s="5">
         <f>AVERAGE([1]Sheet1!F75:F86)</f>
-        <v>1.6466848978422179E-2</v>
+        <v>1.3471643012731661E-2</v>
       </c>
       <c r="G87" s="5">
         <f>AVERAGE([1]Sheet1!G75:G86)</f>
@@ -7595,11 +7611,11 @@
       </c>
       <c r="E88" s="5">
         <f>AVERAGE([1]Sheet1!E76:E87)</f>
-        <v>1.1067453169329606E-2</v>
+        <v>1.6753756405561079E-2</v>
       </c>
       <c r="F88" s="5">
         <f>AVERAGE([1]Sheet1!F76:F87)</f>
-        <v>1.6753756405561079E-2</v>
+        <v>1.1067453169329606E-2</v>
       </c>
       <c r="G88" s="5">
         <f>AVERAGE([1]Sheet1!G76:G87)</f>
@@ -7632,11 +7648,11 @@
       </c>
       <c r="E89" s="5">
         <f>AVERAGE([1]Sheet1!E77:E88)</f>
-        <v>9.194005100436789E-3</v>
+        <v>1.1766783952780109E-2</v>
       </c>
       <c r="F89" s="5">
         <f>AVERAGE([1]Sheet1!F77:F88)</f>
-        <v>1.1766783952780109E-2</v>
+        <v>9.194005100436789E-3</v>
       </c>
       <c r="G89" s="5">
         <f>AVERAGE([1]Sheet1!G77:G88)</f>
@@ -7669,11 +7685,11 @@
       </c>
       <c r="E90" s="5">
         <f>AVERAGE([1]Sheet1!E78:E89)</f>
-        <v>1.0391669557167549E-2</v>
+        <v>1.2911453155400517E-2</v>
       </c>
       <c r="F90" s="5">
         <f>AVERAGE([1]Sheet1!F78:F89)</f>
-        <v>1.2911453155400517E-2</v>
+        <v>1.0391669557167549E-2</v>
       </c>
       <c r="G90" s="5">
         <f>AVERAGE([1]Sheet1!G78:G89)</f>
@@ -7706,11 +7722,11 @@
       </c>
       <c r="E91" s="5">
         <f>AVERAGE([1]Sheet1!E79:E90)</f>
-        <v>1.5566338751250549E-2</v>
+        <v>1.8617702198674944E-2</v>
       </c>
       <c r="F91" s="5">
         <f>AVERAGE([1]Sheet1!F79:F90)</f>
-        <v>1.8617702198674944E-2</v>
+        <v>1.5566338751250549E-2</v>
       </c>
       <c r="G91" s="5">
         <f>AVERAGE([1]Sheet1!G79:G90)</f>
@@ -7743,11 +7759,11 @@
       </c>
       <c r="E92" s="5">
         <f>AVERAGE([1]Sheet1!E80:E91)</f>
-        <v>9.5075586077106259E-3</v>
+        <v>2.1586441242182581E-2</v>
       </c>
       <c r="F92" s="5">
         <f>AVERAGE([1]Sheet1!F80:F91)</f>
-        <v>2.1586441242182581E-2</v>
+        <v>9.5075586077106259E-3</v>
       </c>
       <c r="G92" s="5">
         <f>AVERAGE([1]Sheet1!G80:G91)</f>
@@ -7780,11 +7796,11 @@
       </c>
       <c r="E93" s="5">
         <f>AVERAGE([1]Sheet1!E81:E92)</f>
-        <v>5.9350146076068084E-3</v>
+        <v>1.4065418792778952E-2</v>
       </c>
       <c r="F93" s="5">
         <f>AVERAGE([1]Sheet1!F81:F92)</f>
-        <v>1.4065418792778952E-2</v>
+        <v>5.9350146076068084E-3</v>
       </c>
       <c r="G93" s="5">
         <f>AVERAGE([1]Sheet1!G81:G92)</f>
@@ -7817,11 +7833,11 @@
       </c>
       <c r="E94" s="5">
         <f>AVERAGE([1]Sheet1!E82:E93)</f>
-        <v>8.1403256028704984E-4</v>
+        <v>1.3286924371666181E-2</v>
       </c>
       <c r="F94" s="5">
         <f>AVERAGE([1]Sheet1!F82:F93)</f>
-        <v>1.3286924371666181E-2</v>
+        <v>8.1403256028704984E-4</v>
       </c>
       <c r="G94" s="5">
         <f>AVERAGE([1]Sheet1!G82:G93)</f>
@@ -7854,11 +7870,11 @@
       </c>
       <c r="E95" s="5">
         <f>AVERAGE([1]Sheet1!E83:E94)</f>
-        <v>-1.8518850347025693E-2</v>
+        <v>1.0831286929794079E-5</v>
       </c>
       <c r="F95" s="5">
         <f>AVERAGE([1]Sheet1!F83:F94)</f>
-        <v>1.0831286929794079E-5</v>
+        <v>-1.8518850347025693E-2</v>
       </c>
       <c r="G95" s="5">
         <f>AVERAGE([1]Sheet1!G83:G94)</f>
@@ -7891,11 +7907,11 @@
       </c>
       <c r="E96" s="5">
         <f>AVERAGE([1]Sheet1!E84:E95)</f>
-        <v>-1.0505686227473708E-2</v>
+        <v>5.9164227195322855E-3</v>
       </c>
       <c r="F96" s="5">
         <f>AVERAGE([1]Sheet1!F84:F95)</f>
-        <v>5.9164227195322855E-3</v>
+        <v>-1.0505686227473708E-2</v>
       </c>
       <c r="G96" s="5">
         <f>AVERAGE([1]Sheet1!G84:G95)</f>
@@ -7928,11 +7944,11 @@
       </c>
       <c r="E97" s="5">
         <f>AVERAGE([1]Sheet1!E85:E96)</f>
-        <v>-1.8054810292857576E-2</v>
+        <v>5.6857258529784821E-3</v>
       </c>
       <c r="F97" s="5">
         <f>AVERAGE([1]Sheet1!F85:F96)</f>
-        <v>5.6857258529784821E-3</v>
+        <v>-1.8054810292857576E-2</v>
       </c>
       <c r="G97" s="5">
         <f>AVERAGE([1]Sheet1!G85:G96)</f>
@@ -7965,11 +7981,11 @@
       </c>
       <c r="E98" s="5">
         <f>AVERAGE([1]Sheet1!E86:E97)</f>
-        <v>-1.6092678351026762E-2</v>
+        <v>9.5511582395169667E-4</v>
       </c>
       <c r="F98" s="5">
         <f>AVERAGE([1]Sheet1!F86:F97)</f>
-        <v>9.5511582395169667E-4</v>
+        <v>-1.6092678351026762E-2</v>
       </c>
       <c r="G98" s="5">
         <f>AVERAGE([1]Sheet1!G86:G97)</f>
@@ -8002,11 +8018,11 @@
       </c>
       <c r="E99" s="5">
         <f>AVERAGE([1]Sheet1!E87:E98)</f>
-        <v>-8.7401152910278647E-3</v>
+        <v>2.6999012501342803E-3</v>
       </c>
       <c r="F99" s="5">
         <f>AVERAGE([1]Sheet1!F87:F98)</f>
-        <v>2.6999012501342803E-3</v>
+        <v>-8.7401152910278647E-3</v>
       </c>
       <c r="G99" s="5">
         <f>AVERAGE([1]Sheet1!G87:G98)</f>
@@ -8039,11 +8055,11 @@
       </c>
       <c r="E100" s="5">
         <f>AVERAGE([1]Sheet1!E88:E99)</f>
-        <v>-3.0811951399030528E-3</v>
+        <v>3.4193068629459569E-3</v>
       </c>
       <c r="F100" s="5">
         <f>AVERAGE([1]Sheet1!F88:F99)</f>
-        <v>3.4193068629459569E-3</v>
+        <v>-3.0811951399030528E-3</v>
       </c>
       <c r="G100" s="5">
         <f>AVERAGE([1]Sheet1!G88:G99)</f>
@@ -8076,11 +8092,11 @@
       </c>
       <c r="E101" s="5">
         <f>AVERAGE([1]Sheet1!E89:E100)</f>
-        <v>-8.0801690931077263E-3</v>
+        <v>6.1176133982904181E-3</v>
       </c>
       <c r="F101" s="5">
         <f>AVERAGE([1]Sheet1!F89:F100)</f>
-        <v>6.1176133982904181E-3</v>
+        <v>-8.0801690931077263E-3</v>
       </c>
       <c r="G101" s="5">
         <f>AVERAGE([1]Sheet1!G89:G100)</f>
@@ -8113,11 +8129,11 @@
       </c>
       <c r="E102" s="5">
         <f>AVERAGE([1]Sheet1!E90:E101)</f>
-        <v>-6.5811603484778229E-3</v>
+        <v>3.1182088225135784E-3</v>
       </c>
       <c r="F102" s="5">
         <f>AVERAGE([1]Sheet1!F90:F101)</f>
-        <v>3.1182088225135784E-3</v>
+        <v>-6.5811603484778229E-3</v>
       </c>
       <c r="G102" s="5">
         <f>AVERAGE([1]Sheet1!G90:G101)</f>
@@ -8150,11 +8166,11 @@
       </c>
       <c r="E103" s="5">
         <f>AVERAGE([1]Sheet1!E91:E102)</f>
-        <v>-1.61891347966714E-2</v>
+        <v>-9.776031503851534E-4</v>
       </c>
       <c r="F103" s="5">
         <f>AVERAGE([1]Sheet1!F91:F102)</f>
-        <v>-9.776031503851534E-4</v>
+        <v>-1.61891347966714E-2</v>
       </c>
       <c r="G103" s="5">
         <f>AVERAGE([1]Sheet1!G91:G102)</f>
@@ -8187,11 +8203,11 @@
       </c>
       <c r="E104" s="5">
         <f>AVERAGE([1]Sheet1!E92:E103)</f>
-        <v>-8.0322392987742502E-3</v>
+        <v>3.8400993043311033E-3</v>
       </c>
       <c r="F104" s="5">
         <f>AVERAGE([1]Sheet1!F92:F103)</f>
-        <v>3.8400993043311033E-3</v>
+        <v>-8.0322392987742502E-3</v>
       </c>
       <c r="G104" s="5">
         <f>AVERAGE([1]Sheet1!G92:G103)</f>
@@ -8224,11 +8240,11 @@
       </c>
       <c r="E105" s="5">
         <f>AVERAGE([1]Sheet1!E93:E104)</f>
-        <v>-6.6658982812077923E-3</v>
+        <v>6.6794389443855717E-3</v>
       </c>
       <c r="F105" s="5">
         <f>AVERAGE([1]Sheet1!F93:F104)</f>
-        <v>6.6794389443855717E-3</v>
+        <v>-6.6658982812077923E-3</v>
       </c>
       <c r="G105" s="5">
         <f>AVERAGE([1]Sheet1!G93:G104)</f>
@@ -8261,11 +8277,11 @@
       </c>
       <c r="E106" s="5">
         <f>AVERAGE([1]Sheet1!E94:E105)</f>
-        <v>-9.1284302753331643E-4</v>
+        <v>1.3058977241131163E-2</v>
       </c>
       <c r="F106" s="5">
         <f>AVERAGE([1]Sheet1!F94:F105)</f>
-        <v>1.3058977241131163E-2</v>
+        <v>-9.1284302753331643E-4</v>
       </c>
       <c r="G106" s="5">
         <f>AVERAGE([1]Sheet1!G94:G105)</f>
@@ -8298,11 +8314,11 @@
       </c>
       <c r="E107" s="5">
         <f>AVERAGE([1]Sheet1!E95:E106)</f>
-        <v>1.6835793873528321E-2</v>
+        <v>2.1058819187319378E-2</v>
       </c>
       <c r="F107" s="5">
         <f>AVERAGE([1]Sheet1!F95:F106)</f>
-        <v>2.1058819187319378E-2</v>
+        <v>1.6835793873528321E-2</v>
       </c>
       <c r="G107" s="5">
         <f>AVERAGE([1]Sheet1!G95:G106)</f>
@@ -8335,11 +8351,11 @@
       </c>
       <c r="E108" s="5">
         <f>AVERAGE([1]Sheet1!E96:E107)</f>
-        <v>9.2760739902758849E-3</v>
+        <v>1.0432782366714898E-2</v>
       </c>
       <c r="F108" s="5">
         <f>AVERAGE([1]Sheet1!F96:F107)</f>
-        <v>1.0432782366714898E-2</v>
+        <v>9.2760739902758849E-3</v>
       </c>
       <c r="G108" s="5">
         <f>AVERAGE([1]Sheet1!G96:G107)</f>
@@ -8372,11 +8388,11 @@
       </c>
       <c r="E109" s="5">
         <f>AVERAGE([1]Sheet1!E97:E108)</f>
-        <v>1.8640115435073674E-2</v>
+        <v>1.1091561375041144E-2</v>
       </c>
       <c r="F109" s="5">
         <f>AVERAGE([1]Sheet1!F97:F108)</f>
-        <v>1.1091561375041144E-2</v>
+        <v>1.8640115435073674E-2</v>
       </c>
       <c r="G109" s="5">
         <f>AVERAGE([1]Sheet1!G97:G108)</f>
@@ -8409,11 +8425,11 @@
       </c>
       <c r="E110" s="5">
         <f>AVERAGE([1]Sheet1!E98:E109)</f>
-        <v>1.894847123036272E-2</v>
+        <v>1.0969524614497857E-2</v>
       </c>
       <c r="F110" s="5">
         <f>AVERAGE([1]Sheet1!F98:F109)</f>
-        <v>1.0969524614497857E-2</v>
+        <v>1.894847123036272E-2</v>
       </c>
       <c r="G110" s="5">
         <f>AVERAGE([1]Sheet1!G98:G109)</f>
@@ -8446,11 +8462,11 @@
       </c>
       <c r="E111" s="5">
         <f>AVERAGE([1]Sheet1!E99:E110)</f>
-        <v>1.4050965248769967E-2</v>
+        <v>1.1539945307399138E-2</v>
       </c>
       <c r="F111" s="5">
         <f>AVERAGE([1]Sheet1!F99:F110)</f>
-        <v>1.1539945307399138E-2</v>
+        <v>1.4050965248769967E-2</v>
       </c>
       <c r="G111" s="5">
         <f>AVERAGE([1]Sheet1!G99:G110)</f>
@@ -8483,11 +8499,11 @@
       </c>
       <c r="E112" s="5">
         <f>AVERAGE([1]Sheet1!E100:E111)</f>
-        <v>6.2897969427408084E-3</v>
+        <v>9.0792080643363055E-3</v>
       </c>
       <c r="F112" s="5">
         <f>AVERAGE([1]Sheet1!F100:F111)</f>
-        <v>9.0792080643363055E-3</v>
+        <v>6.2897969427408084E-3</v>
       </c>
       <c r="G112" s="5">
         <f>AVERAGE([1]Sheet1!G100:G111)</f>
@@ -8520,11 +8536,11 @@
       </c>
       <c r="E113" s="5">
         <f>AVERAGE([1]Sheet1!E101:E112)</f>
-        <v>8.0034056710949087E-3</v>
+        <v>9.4671599691826883E-3</v>
       </c>
       <c r="F113" s="5">
         <f>AVERAGE([1]Sheet1!F101:F112)</f>
-        <v>9.4671599691826883E-3</v>
+        <v>8.0034056710949087E-3</v>
       </c>
       <c r="G113" s="5">
         <f>AVERAGE([1]Sheet1!G101:G112)</f>
@@ -8557,11 +8573,11 @@
       </c>
       <c r="E114" s="5">
         <f>AVERAGE([1]Sheet1!E102:E113)</f>
-        <v>7.4542546614787429E-3</v>
+        <v>1.1599098408947286E-2</v>
       </c>
       <c r="F114" s="5">
         <f>AVERAGE([1]Sheet1!F102:F113)</f>
-        <v>1.1599098408947286E-2</v>
+        <v>7.4542546614787429E-3</v>
       </c>
       <c r="G114" s="5">
         <f>AVERAGE([1]Sheet1!G102:G113)</f>
@@ -8594,11 +8610,11 @@
       </c>
       <c r="E115" s="5">
         <f>AVERAGE([1]Sheet1!E103:E114)</f>
-        <v>1.5927180748894404E-2</v>
+        <v>1.855021964534671E-2</v>
       </c>
       <c r="F115" s="5">
         <f>AVERAGE([1]Sheet1!F103:F114)</f>
-        <v>1.855021964534671E-2</v>
+        <v>1.5927180748894404E-2</v>
       </c>
       <c r="G115" s="5">
         <f>AVERAGE([1]Sheet1!G103:G114)</f>
@@ -8631,11 +8647,11 @@
       </c>
       <c r="E116" s="5">
         <f>AVERAGE([1]Sheet1!E104:E115)</f>
-        <v>6.3821767382745013E-3</v>
+        <v>1.4004032417098397E-2</v>
       </c>
       <c r="F116" s="5">
         <f>AVERAGE([1]Sheet1!F104:F115)</f>
-        <v>1.4004032417098397E-2</v>
+        <v>6.3821767382745013E-3</v>
       </c>
       <c r="G116" s="5">
         <f>AVERAGE([1]Sheet1!G104:G115)</f>
@@ -8668,11 +8684,11 @@
       </c>
       <c r="E117" s="5">
         <f>AVERAGE([1]Sheet1!E105:E116)</f>
-        <v>9.1867353029678866E-3</v>
+        <v>1.7076071764566388E-2</v>
       </c>
       <c r="F117" s="5">
         <f>AVERAGE([1]Sheet1!F105:F116)</f>
-        <v>1.7076071764566388E-2</v>
+        <v>9.1867353029678866E-3</v>
       </c>
       <c r="G117" s="5">
         <f>AVERAGE([1]Sheet1!G105:G116)</f>
@@ -8705,11 +8721,11 @@
       </c>
       <c r="E118" s="5">
         <f>AVERAGE([1]Sheet1!E106:E117)</f>
-        <v>9.9295845409979096E-3</v>
+        <v>1.2820957182893646E-2</v>
       </c>
       <c r="F118" s="5">
         <f>AVERAGE([1]Sheet1!F106:F117)</f>
-        <v>1.2820957182893646E-2</v>
+        <v>9.9295845409979096E-3</v>
       </c>
       <c r="G118" s="5">
         <f>AVERAGE([1]Sheet1!G106:G117)</f>
@@ -8742,11 +8758,11 @@
       </c>
       <c r="E119" s="5">
         <f>AVERAGE([1]Sheet1!E107:E118)</f>
-        <v>8.4492095622278312E-3</v>
+        <v>1.3280405891889632E-2</v>
       </c>
       <c r="F119" s="5">
         <f>AVERAGE([1]Sheet1!F107:F118)</f>
-        <v>1.3280405891889632E-2</v>
+        <v>8.4492095622278312E-3</v>
       </c>
       <c r="G119" s="5">
         <f>AVERAGE([1]Sheet1!G107:G118)</f>
@@ -8779,11 +8795,11 @@
       </c>
       <c r="E120" s="5">
         <f>AVERAGE([1]Sheet1!E108:E119)</f>
-        <v>6.5077010611460061E-3</v>
+        <v>1.8645836175707853E-2</v>
       </c>
       <c r="F120" s="5">
         <f>AVERAGE([1]Sheet1!F108:F119)</f>
-        <v>1.8645836175707853E-2</v>
+        <v>6.5077010611460061E-3</v>
       </c>
       <c r="G120" s="5">
         <f>AVERAGE([1]Sheet1!G108:G119)</f>
@@ -8816,11 +8832,11 @@
       </c>
       <c r="E121" s="5">
         <f>AVERAGE([1]Sheet1!E109:E120)</f>
-        <v>7.435101406301322E-3</v>
+        <v>2.074606600477118E-2</v>
       </c>
       <c r="F121" s="5">
         <f>AVERAGE([1]Sheet1!F109:F120)</f>
-        <v>2.074606600477118E-2</v>
+        <v>7.435101406301322E-3</v>
       </c>
       <c r="G121" s="5">
         <f>AVERAGE([1]Sheet1!G109:G120)</f>
@@ -8853,11 +8869,11 @@
       </c>
       <c r="E122" s="5">
         <f>AVERAGE([1]Sheet1!E110:E121)</f>
-        <v>3.0590522227482153E-3</v>
+        <v>2.2120609569245026E-2</v>
       </c>
       <c r="F122" s="5">
         <f>AVERAGE([1]Sheet1!F110:F121)</f>
-        <v>2.2120609569245026E-2</v>
+        <v>3.0590522227482153E-3</v>
       </c>
       <c r="G122" s="5">
         <f>AVERAGE([1]Sheet1!G110:G121)</f>
@@ -8890,11 +8906,11 @@
       </c>
       <c r="E123" s="5">
         <f>AVERAGE([1]Sheet1!E111:E122)</f>
-        <v>-5.4304893797207541E-3</v>
+        <v>1.4953029678494623E-2</v>
       </c>
       <c r="F123" s="5">
         <f>AVERAGE([1]Sheet1!F111:F122)</f>
-        <v>1.4953029678494623E-2</v>
+        <v>-5.4304893797207541E-3</v>
       </c>
       <c r="G123" s="5">
         <f>AVERAGE([1]Sheet1!G111:G122)</f>
@@ -8927,11 +8943,11 @@
       </c>
       <c r="E124" s="5">
         <f>AVERAGE([1]Sheet1!E112:E123)</f>
-        <v>9.1545029402073541E-5</v>
+        <v>1.7624399223698833E-2</v>
       </c>
       <c r="F124" s="5">
         <f>AVERAGE([1]Sheet1!F112:F123)</f>
-        <v>1.7624399223698833E-2</v>
+        <v>9.1545029402073541E-5</v>
       </c>
       <c r="G124" s="5">
         <f>AVERAGE([1]Sheet1!G112:G123)</f>
@@ -8964,11 +8980,11 @@
       </c>
       <c r="E125" s="5">
         <f>AVERAGE([1]Sheet1!E113:E124)</f>
-        <v>1.9737331724188045E-4</v>
+        <v>1.5203095719964184E-2</v>
       </c>
       <c r="F125" s="5">
         <f>AVERAGE([1]Sheet1!F113:F124)</f>
-        <v>1.5203095719964184E-2</v>
+        <v>1.9737331724188045E-4</v>
       </c>
       <c r="G125" s="5">
         <f>AVERAGE([1]Sheet1!G113:G124)</f>
@@ -9001,11 +9017,11 @@
       </c>
       <c r="E126" s="5">
         <f>AVERAGE([1]Sheet1!E114:E125)</f>
-        <v>-1.5014015982371435E-3</v>
+        <v>1.421268179254165E-2</v>
       </c>
       <c r="F126" s="5">
         <f>AVERAGE([1]Sheet1!F114:F125)</f>
-        <v>1.421268179254165E-2</v>
+        <v>-1.5014015982371435E-3</v>
       </c>
       <c r="G126" s="5">
         <f>AVERAGE([1]Sheet1!G114:G125)</f>
@@ -9038,11 +9054,11 @@
       </c>
       <c r="E127" s="5">
         <f>AVERAGE([1]Sheet1!E115:E126)</f>
-        <v>3.3304765491034721E-3</v>
+        <v>1.423497334609225E-2</v>
       </c>
       <c r="F127" s="5">
         <f>AVERAGE([1]Sheet1!F115:F126)</f>
-        <v>1.423497334609225E-2</v>
+        <v>3.3304765491034721E-3</v>
       </c>
       <c r="G127" s="5">
         <f>AVERAGE([1]Sheet1!G115:G126)</f>
@@ -9075,11 +9091,11 @@
       </c>
       <c r="E128" s="5">
         <f>AVERAGE([1]Sheet1!E116:E127)</f>
-        <v>9.6373040459356556E-3</v>
+        <v>1.707310992176219E-2</v>
       </c>
       <c r="F128" s="5">
         <f>AVERAGE([1]Sheet1!F116:F127)</f>
-        <v>1.707310992176219E-2</v>
+        <v>9.6373040459356556E-3</v>
       </c>
       <c r="G128" s="5">
         <f>AVERAGE([1]Sheet1!G116:G127)</f>
@@ -9112,11 +9128,11 @@
       </c>
       <c r="E129" s="5">
         <f>AVERAGE([1]Sheet1!E117:E128)</f>
-        <v>1.093730116739112E-2</v>
+        <v>1.1694612064197266E-2</v>
       </c>
       <c r="F129" s="5">
         <f>AVERAGE([1]Sheet1!F117:F128)</f>
-        <v>1.1694612064197266E-2</v>
+        <v>1.093730116739112E-2</v>
       </c>
       <c r="G129" s="5">
         <f>AVERAGE([1]Sheet1!G117:G128)</f>
@@ -9149,11 +9165,11 @@
       </c>
       <c r="E130" s="5">
         <f>AVERAGE([1]Sheet1!E118:E129)</f>
-        <v>1.1467439764052187E-2</v>
+        <v>1.7440723318471841E-2</v>
       </c>
       <c r="F130" s="5">
         <f>AVERAGE([1]Sheet1!F118:F129)</f>
-        <v>1.7440723318471841E-2</v>
+        <v>1.1467439764052187E-2</v>
       </c>
       <c r="G130" s="5">
         <f>AVERAGE([1]Sheet1!G118:G129)</f>
@@ -9186,11 +9202,11 @@
       </c>
       <c r="E131" s="5">
         <f>AVERAGE([1]Sheet1!E119:E130)</f>
-        <v>1.046883449668205E-3</v>
+        <v>1.3668778815928083E-2</v>
       </c>
       <c r="F131" s="5">
         <f>AVERAGE([1]Sheet1!F119:F130)</f>
-        <v>1.3668778815928083E-2</v>
+        <v>1.046883449668205E-3</v>
       </c>
       <c r="G131" s="5">
         <f>AVERAGE([1]Sheet1!G119:G130)</f>
@@ -9223,11 +9239,11 @@
       </c>
       <c r="E132" s="5">
         <f>AVERAGE([1]Sheet1!E120:E131)</f>
-        <v>3.6539790178032466E-3</v>
+        <v>1.1885920175169583E-2</v>
       </c>
       <c r="F132" s="5">
         <f>AVERAGE([1]Sheet1!F120:F131)</f>
-        <v>1.1885920175169583E-2</v>
+        <v>3.6539790178032466E-3</v>
       </c>
       <c r="G132" s="5">
         <f>AVERAGE([1]Sheet1!G120:G131)</f>
@@ -9260,11 +9276,11 @@
       </c>
       <c r="E133" s="5">
         <f>AVERAGE([1]Sheet1!E121:E132)</f>
-        <v>1.1935196024485753E-3</v>
+        <v>1.1592930469239709E-2</v>
       </c>
       <c r="F133" s="5">
         <f>AVERAGE([1]Sheet1!F121:F132)</f>
-        <v>1.1592930469239709E-2</v>
+        <v>1.1935196024485753E-3</v>
       </c>
       <c r="G133" s="5">
         <f>AVERAGE([1]Sheet1!G121:G132)</f>
@@ -9297,11 +9313,11 @@
       </c>
       <c r="E134" s="5">
         <f>AVERAGE([1]Sheet1!E122:E133)</f>
-        <v>1.8711156476175E-3</v>
+        <v>9.2803183557637076E-3</v>
       </c>
       <c r="F134" s="5">
         <f>AVERAGE([1]Sheet1!F122:F133)</f>
-        <v>9.2803183557637076E-3</v>
+        <v>1.8711156476175E-3</v>
       </c>
       <c r="G134" s="5">
         <f>AVERAGE([1]Sheet1!G122:G133)</f>
@@ -9334,11 +9350,11 @@
       </c>
       <c r="E135" s="5">
         <f>AVERAGE([1]Sheet1!E123:E134)</f>
-        <v>9.5999252373066678E-3</v>
+        <v>9.658822360160484E-3</v>
       </c>
       <c r="F135" s="5">
         <f>AVERAGE([1]Sheet1!F123:F134)</f>
-        <v>9.658822360160484E-3</v>
+        <v>9.5999252373066678E-3</v>
       </c>
       <c r="G135" s="5">
         <f>AVERAGE([1]Sheet1!G123:G134)</f>
@@ -9371,11 +9387,11 @@
       </c>
       <c r="E136" s="5">
         <f>AVERAGE([1]Sheet1!E124:E135)</f>
-        <v>7.6440060207426073E-3</v>
+        <v>1.0640111373320065E-2</v>
       </c>
       <c r="F136" s="5">
         <f>AVERAGE([1]Sheet1!F124:F135)</f>
-        <v>1.0640111373320065E-2</v>
+        <v>7.6440060207426073E-3</v>
       </c>
       <c r="G136" s="5">
         <f>AVERAGE([1]Sheet1!G124:G135)</f>
@@ -9408,11 +9424,11 @@
       </c>
       <c r="E137" s="5">
         <f>AVERAGE([1]Sheet1!E125:E136)</f>
-        <v>1.040740119512275E-2</v>
+        <v>8.6127602542630573E-3</v>
       </c>
       <c r="F137" s="5">
         <f>AVERAGE([1]Sheet1!F125:F136)</f>
-        <v>8.6127602542630573E-3</v>
+        <v>1.040740119512275E-2</v>
       </c>
       <c r="G137" s="5">
         <f>AVERAGE([1]Sheet1!G125:G136)</f>
@@ -9445,11 +9461,11 @@
       </c>
       <c r="E138" s="5">
         <f>AVERAGE([1]Sheet1!E126:E137)</f>
-        <v>2.1288275836561264E-2</v>
+        <v>8.8060907414295401E-3</v>
       </c>
       <c r="F138" s="5">
         <f>AVERAGE([1]Sheet1!F126:F137)</f>
-        <v>8.8060907414295401E-3</v>
+        <v>2.1288275836561264E-2</v>
       </c>
       <c r="G138" s="5">
         <f>AVERAGE([1]Sheet1!G126:G137)</f>
@@ -9482,11 +9498,11 @@
       </c>
       <c r="E139" s="5">
         <f>AVERAGE([1]Sheet1!E127:E138)</f>
-        <v>1.5620725616515984E-2</v>
+        <v>7.9278537768457408E-3</v>
       </c>
       <c r="F139" s="5">
         <f>AVERAGE([1]Sheet1!F127:F138)</f>
-        <v>7.9278537768457408E-3</v>
+        <v>1.5620725616515984E-2</v>
       </c>
       <c r="G139" s="5">
         <f>AVERAGE([1]Sheet1!G127:G138)</f>
@@ -9519,11 +9535,11 @@
       </c>
       <c r="E140" s="5">
         <f>AVERAGE([1]Sheet1!E128:E139)</f>
-        <v>1.1659046064397568E-2</v>
+        <v>4.5886799181037831E-3</v>
       </c>
       <c r="F140" s="5">
         <f>AVERAGE([1]Sheet1!F128:F139)</f>
-        <v>4.5886799181037831E-3</v>
+        <v>1.1659046064397568E-2</v>
       </c>
       <c r="G140" s="5">
         <f>AVERAGE([1]Sheet1!G128:G139)</f>
@@ -9556,11 +9572,11 @@
       </c>
       <c r="E141" s="5">
         <f>AVERAGE([1]Sheet1!E129:E140)</f>
-        <v>9.0831800501080826E-4</v>
+        <v>7.4905051687121577E-3</v>
       </c>
       <c r="F141" s="5">
         <f>AVERAGE([1]Sheet1!F129:F140)</f>
-        <v>7.4905051687121577E-3</v>
+        <v>9.0831800501080826E-4</v>
       </c>
       <c r="G141" s="5">
         <f>AVERAGE([1]Sheet1!G129:G140)</f>
@@ -9593,11 +9609,11 @@
       </c>
       <c r="E142" s="5">
         <f>AVERAGE([1]Sheet1!E130:E141)</f>
-        <v>-9.0735124153204141E-3</v>
+        <v>-8.6250536058918358E-4</v>
       </c>
       <c r="F142" s="5">
         <f>AVERAGE([1]Sheet1!F130:F141)</f>
-        <v>-8.6250536058918358E-4</v>
+        <v>-9.0735124153204141E-3</v>
       </c>
       <c r="G142" s="5">
         <f>AVERAGE([1]Sheet1!G130:G141)</f>
@@ -9630,11 +9646,11 @@
       </c>
       <c r="E143" s="5">
         <f>AVERAGE([1]Sheet1!E131:E142)</f>
-        <v>-6.1501144271485066E-3</v>
+        <v>-1.7732520667217172E-3</v>
       </c>
       <c r="F143" s="5">
         <f>AVERAGE([1]Sheet1!F131:F142)</f>
-        <v>-1.7732520667217172E-3</v>
+        <v>-6.1501144271485066E-3</v>
       </c>
       <c r="G143" s="5">
         <f>AVERAGE([1]Sheet1!G131:G142)</f>
@@ -9667,11 +9683,11 @@
       </c>
       <c r="E144" s="5">
         <f>AVERAGE([1]Sheet1!E132:E143)</f>
-        <v>-2.8498804619586661E-3</v>
+        <v>3.2085497844525669E-3</v>
       </c>
       <c r="F144" s="5">
         <f>AVERAGE([1]Sheet1!F132:F143)</f>
-        <v>3.2085497844525669E-3</v>
+        <v>-2.8498804619586661E-3</v>
       </c>
       <c r="G144" s="5">
         <f>AVERAGE([1]Sheet1!G132:G143)</f>
@@ -9704,11 +9720,11 @@
       </c>
       <c r="E145" s="5">
         <f>AVERAGE([1]Sheet1!E133:E144)</f>
-        <v>-5.1820701229206775E-3</v>
+        <v>1.2061646731838561E-3</v>
       </c>
       <c r="F145" s="5">
         <f>AVERAGE([1]Sheet1!F133:F144)</f>
-        <v>1.2061646731838561E-3</v>
+        <v>-5.1820701229206775E-3</v>
       </c>
       <c r="G145" s="5">
         <f>AVERAGE([1]Sheet1!G133:G144)</f>
@@ -9741,11 +9757,11 @@
       </c>
       <c r="E146" s="5">
         <f>AVERAGE([1]Sheet1!E134:E145)</f>
-        <v>-4.1642953071797774E-3</v>
+        <v>9.4357480531272249E-5</v>
       </c>
       <c r="F146" s="5">
         <f>AVERAGE([1]Sheet1!F134:F145)</f>
-        <v>9.4357480531272249E-5</v>
+        <v>-4.1642953071797774E-3</v>
       </c>
       <c r="G146" s="5">
         <f>AVERAGE([1]Sheet1!G134:G145)</f>
@@ -9778,11 +9794,11 @@
       </c>
       <c r="E147" s="5">
         <f>AVERAGE([1]Sheet1!E135:E146)</f>
-        <v>-1.5833548729825061E-2</v>
+        <v>-1.5468506384257112E-3</v>
       </c>
       <c r="F147" s="5">
         <f>AVERAGE([1]Sheet1!F135:F146)</f>
-        <v>-1.5468506384257112E-3</v>
+        <v>-1.5833548729825061E-2</v>
       </c>
       <c r="G147" s="5">
         <f>AVERAGE([1]Sheet1!G135:G146)</f>
@@ -9815,11 +9831,11 @@
       </c>
       <c r="E148" s="5">
         <f>AVERAGE([1]Sheet1!E136:E147)</f>
-        <v>-1.9327117903793028E-2</v>
+        <v>-6.4652557202478514E-3</v>
       </c>
       <c r="F148" s="5">
         <f>AVERAGE([1]Sheet1!F136:F147)</f>
-        <v>-6.4652557202478514E-3</v>
+        <v>-1.9327117903793028E-2</v>
       </c>
       <c r="G148" s="5">
         <f>AVERAGE([1]Sheet1!G136:G147)</f>
@@ -9852,11 +9868,11 @@
       </c>
       <c r="E149" s="5">
         <f>AVERAGE([1]Sheet1!E137:E148)</f>
-        <v>-1.2328765467604733E-2</v>
+        <v>4.8367467885770607E-4</v>
       </c>
       <c r="F149" s="5">
         <f>AVERAGE([1]Sheet1!F137:F148)</f>
-        <v>4.8367467885770607E-4</v>
+        <v>-1.2328765467604733E-2</v>
       </c>
       <c r="G149" s="5">
         <f>AVERAGE([1]Sheet1!G137:G148)</f>
@@ -9889,11 +9905,11 @@
       </c>
       <c r="E150" s="5">
         <f>AVERAGE([1]Sheet1!E138:E149)</f>
-        <v>-2.1980780966781091E-2</v>
+        <v>-1.4413950122487789E-6</v>
       </c>
       <c r="F150" s="5">
         <f>AVERAGE([1]Sheet1!F138:F149)</f>
-        <v>-1.4413950122487789E-6</v>
+        <v>-2.1980780966781091E-2</v>
       </c>
       <c r="G150" s="5">
         <f>AVERAGE([1]Sheet1!G138:G149)</f>
@@ -9926,11 +9942,11 @@
       </c>
       <c r="E151" s="5">
         <f>AVERAGE([1]Sheet1!E139:E150)</f>
-        <v>-2.0877859482809735E-2</v>
+        <v>4.0172973319329408E-4</v>
       </c>
       <c r="F151" s="5">
         <f>AVERAGE([1]Sheet1!F139:F150)</f>
-        <v>4.0172973319329408E-4</v>
+        <v>-2.0877859482809735E-2</v>
       </c>
       <c r="G151" s="5">
         <f>AVERAGE([1]Sheet1!G139:G150)</f>
@@ -9963,11 +9979,11 @@
       </c>
       <c r="E152" s="5">
         <f>AVERAGE([1]Sheet1!E140:E151)</f>
-        <v>-1.7392915799616573E-2</v>
+        <v>2.2282169340740385E-3</v>
       </c>
       <c r="F152" s="5">
         <f>AVERAGE([1]Sheet1!F140:F151)</f>
-        <v>2.2282169340740385E-3</v>
+        <v>-1.7392915799616573E-2</v>
       </c>
       <c r="G152" s="5">
         <f>AVERAGE([1]Sheet1!G140:G151)</f>
@@ -10000,11 +10016,11 @@
       </c>
       <c r="E153" s="5">
         <f>AVERAGE([1]Sheet1!E141:E152)</f>
-        <v>-7.8736837912543045E-3</v>
+        <v>3.5505308756304788E-3</v>
       </c>
       <c r="F153" s="5">
         <f>AVERAGE([1]Sheet1!F141:F152)</f>
-        <v>3.5505308756304788E-3</v>
+        <v>-7.8736837912543045E-3</v>
       </c>
       <c r="G153" s="5">
         <f>AVERAGE([1]Sheet1!G141:G152)</f>
@@ -10037,11 +10053,11 @@
       </c>
       <c r="E154" s="5">
         <f>AVERAGE([1]Sheet1!E142:E153)</f>
-        <v>6.2901147303872943E-3</v>
+        <v>8.6639999641842276E-3</v>
       </c>
       <c r="F154" s="5">
         <f>AVERAGE([1]Sheet1!F142:F153)</f>
-        <v>8.6639999641842276E-3</v>
+        <v>6.2901147303872943E-3</v>
       </c>
       <c r="G154" s="5">
         <f>AVERAGE([1]Sheet1!G142:G153)</f>
@@ -10074,11 +10090,11 @@
       </c>
       <c r="E155" s="5">
         <f>AVERAGE([1]Sheet1!E143:E154)</f>
-        <v>1.0621416097001804E-2</v>
+        <v>1.0764694715946202E-2</v>
       </c>
       <c r="F155" s="5">
         <f>AVERAGE([1]Sheet1!F143:F154)</f>
-        <v>1.0764694715946202E-2</v>
+        <v>1.0621416097001804E-2</v>
       </c>
       <c r="G155" s="5">
         <f>AVERAGE([1]Sheet1!G143:G154)</f>
@@ -10111,11 +10127,11 @@
       </c>
       <c r="E156" s="5">
         <f>AVERAGE([1]Sheet1!E144:E155)</f>
-        <v>2.1538719506893861E-3</v>
+        <v>2.2306360970401578E-3</v>
       </c>
       <c r="F156" s="5">
         <f>AVERAGE([1]Sheet1!F144:F155)</f>
-        <v>2.2306360970401578E-3</v>
+        <v>2.1538719506893861E-3</v>
       </c>
       <c r="G156" s="5">
         <f>AVERAGE([1]Sheet1!G144:G155)</f>
@@ -10148,11 +10164,11 @@
       </c>
       <c r="E157" s="5">
         <f>AVERAGE([1]Sheet1!E145:E156)</f>
-        <v>3.9968787660587587E-3</v>
+        <v>5.0364264057422186E-3</v>
       </c>
       <c r="F157" s="5">
         <f>AVERAGE([1]Sheet1!F145:F156)</f>
-        <v>5.0364264057422186E-3</v>
+        <v>3.9968787660587587E-3</v>
       </c>
       <c r="G157" s="5">
         <f>AVERAGE([1]Sheet1!G145:G156)</f>
@@ -10185,11 +10201,11 @@
       </c>
       <c r="E158" s="5">
         <f>AVERAGE([1]Sheet1!E146:E157)</f>
-        <v>1.4217768469040771E-3</v>
+        <v>8.0140057739582007E-3</v>
       </c>
       <c r="F158" s="5">
         <f>AVERAGE([1]Sheet1!F146:F157)</f>
-        <v>8.0140057739582007E-3</v>
+        <v>1.4217768469040771E-3</v>
       </c>
       <c r="G158" s="5">
         <f>AVERAGE([1]Sheet1!G146:G157)</f>
@@ -10220,11 +10236,11 @@
       </c>
       <c r="E159" s="5">
         <f>AVERAGE([1]Sheet1!E147:E158)</f>
-        <v>1.5106646765009663E-2</v>
+        <v>1.4458617814102884E-2</v>
       </c>
       <c r="F159" s="5">
         <f>AVERAGE([1]Sheet1!F147:F158)</f>
-        <v>1.4458617814102884E-2</v>
+        <v>1.5106646765009663E-2</v>
       </c>
       <c r="G159" s="1">
         <v>-7.4000000000000003E-3</v>
@@ -10253,11 +10269,11 @@
       </c>
       <c r="E160" s="5">
         <f>AVERAGE([1]Sheet1!E148:E159)</f>
-        <v>1.8880249114131994E-2</v>
+        <v>1.7902505752021215E-2</v>
       </c>
       <c r="F160" s="5">
         <f>AVERAGE([1]Sheet1!F148:F159)</f>
-        <v>1.7902505752021215E-2</v>
+        <v>1.8880249114131994E-2</v>
       </c>
       <c r="G160">
         <v>-9.2999999999999992E-3</v>
@@ -10289,7 +10305,7 @@
       </c>
       <c r="F161" s="5">
         <f>AVERAGE([1]Sheet1!F149:F160)</f>
-        <v>1.2370810844574863E-2</v>
+        <v>1.292315989600675E-2</v>
       </c>
       <c r="G161">
         <v>2.5899999999999999E-3</v>
@@ -10321,7 +10337,7 @@
       </c>
       <c r="F162" s="5">
         <f>AVERAGE([1]Sheet1!F150:F161)</f>
-        <v>1.3886174442626869E-2</v>
+        <v>1.2516195557123517E-2</v>
       </c>
       <c r="G162" s="1">
         <v>1.8E-3</v>
@@ -10353,7 +10369,7 @@
       </c>
       <c r="F163" s="5">
         <f>AVERAGE([1]Sheet1!F151:F162)</f>
-        <v>1.3575383435670654E-2</v>
+        <v>1.7054521303569586E-2</v>
       </c>
       <c r="G163" s="1">
         <v>-3.277E-3</v>
@@ -10385,7 +10401,7 @@
       </c>
       <c r="F164" s="5">
         <f>AVERAGE([1]Sheet1!F152:F163)</f>
-        <v>1.3837391472829206E-2</v>
+        <v>1.7538626610204017E-2</v>
       </c>
       <c r="G164" s="1">
         <v>1.1999999999999999E-3</v>
@@ -10416,7 +10432,7 @@
       </c>
       <c r="F165" s="5">
         <f>AVERAGE([1]Sheet1!F153:F164)</f>
-        <v>1.2544907537105382E-2</v>
+        <v>1.8184071286655702E-2</v>
       </c>
       <c r="G165" s="1">
         <v>1.5E-3</v>
@@ -10447,7 +10463,7 @@
       </c>
       <c r="F166" s="5">
         <f>AVERAGE([1]Sheet1!F154:F165)-0.01</f>
-        <v>2.6890055005454501E-3</v>
+        <v>6.0227207198189341E-3</v>
       </c>
       <c r="G166" s="1">
         <v>-4.0000000000000002E-4</v>
@@ -10458,6 +10474,68 @@
       <c r="I166" s="5">
         <f>AVERAGE([1]Sheet1!I154:I165)</f>
         <v>2.6316048643841698E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A167" s="3">
+        <v>43039</v>
+      </c>
+      <c r="B167" s="6">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="C167">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="D167" s="1">
+        <v>1.15E-2</v>
+      </c>
+      <c r="E167">
+        <v>2.8E-3</v>
+      </c>
+      <c r="F167" s="5">
+        <f>AVERAGE([1]Sheet1!F155:F166)-0.01</f>
+        <v>3.6217446259051034E-3</v>
+      </c>
+      <c r="G167" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H167" s="1">
+        <v>-1.41E-2</v>
+      </c>
+      <c r="I167" s="5">
+        <f>AVERAGE([1]Sheet1!I155:I166)</f>
+        <v>2.7198395453415926E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A168" s="3">
+        <v>43069</v>
+      </c>
+      <c r="B168" s="6">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="C168">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="D168" s="1">
+        <v>1.23E-2</v>
+      </c>
+      <c r="E168">
+        <v>-1.9400000000000001E-2</v>
+      </c>
+      <c r="F168" s="5">
+        <f>AVERAGE([1]Sheet1!F156:F167)-0.01</f>
+        <v>7.0104583562684061E-3</v>
+      </c>
+      <c r="G168" s="1">
+        <v>-5.1999999999999998E-3</v>
+      </c>
+      <c r="H168" s="1">
+        <v>-3.5999999999999999E-3</v>
+      </c>
+      <c r="I168" s="5">
+        <f>AVERAGE([1]Sheet1!I156:I167)</f>
+        <v>2.8266382240245851E-3</v>
       </c>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.2">
